--- a/data/Excel Workbooks/Calvin2011/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/SouthAfricaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="21840" windowHeight="13680" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="400" windowWidth="21840" windowHeight="13680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="South Africa Workbook" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Exergy calcs" sheetId="10" r:id="rId4"/>
     <sheet name="Employment Data" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t>Exergy [TJ]</t>
   </si>
@@ -965,6 +965,21 @@
   <si>
     <t>- Renewable electricity generation for 2011 was assumed to be the same as 2010 since no data was available for 2011 from the EIA.</t>
   </si>
+  <si>
+    <t>iK</t>
+  </si>
+  <si>
+    <t>iL</t>
+  </si>
+  <si>
+    <t>Excluding human</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Calvin 2011</t>
+  </si>
 </sst>
 </file>
 
@@ -978,7 +993,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,22 +1881,22 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,7 +1925,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,17 +1942,17 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="506">
+  <cellStyleXfs count="516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2450,8 +2465,18 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2613,9 +2638,6 @@
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2640,9 +2662,6 @@
     </xf>
     <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2713,7 +2732,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2755,7 +2774,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="506">
+  <cellStyles count="516">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="47"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="58"/>
@@ -3075,10 +3094,15 @@
     <cellStyle name="Explanatory Text 7" xfId="332"/>
     <cellStyle name="Explanatory Text 8" xfId="333"/>
     <cellStyle name="Explanatory Text 9" xfId="334"/>
-    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="49"/>
     <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="49"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="335"/>
     <cellStyle name="Good 11" xfId="336"/>
@@ -3155,6 +3179,11 @@
     <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="385"/>
     <cellStyle name="Input 11" xfId="386"/>
@@ -3313,7 +3342,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.316944220254533"/>
-          <c:y val="2.0857099770809299E-2"/>
+          <c:y val="0.0208570997708093"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3325,10 +3354,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1260028369724407E-2"/>
-          <c:y val="7.8876207629000605E-2"/>
-          <c:w val="0.89287292031298904"/>
-          <c:h val="0.87205635837714002"/>
+          <c:x val="0.0712600283697244"/>
+          <c:y val="0.0788762076290006"/>
+          <c:w val="0.892872920312989"/>
+          <c:h val="0.87205635837714"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3359,67 +3388,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3431,67 +3460,67 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97862669417140025</c:v>
+                  <c:v>0.9786266941714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99070237553418483</c:v>
+                  <c:v>0.990702375534185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0227386912396637</c:v>
+                  <c:v>1.022738691239664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546035949238399</c:v>
+                  <c:v>1.05460359492384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1000277805689698</c:v>
+                  <c:v>1.10002778056897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1291382703935975</c:v>
+                  <c:v>1.129138270393597</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.134984011395944</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1617479297565358</c:v>
+                  <c:v>1.161747929756536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2100092798921878</c:v>
+                  <c:v>1.210009279892188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2431095322816121</c:v>
+                  <c:v>1.243109532281612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2887051299480443</c:v>
+                  <c:v>1.288705129948044</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.32671131260233</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3871370054910954</c:v>
+                  <c:v>1.387137005491095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4603358493465655</c:v>
+                  <c:v>1.460335849346565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5421703126200623</c:v>
+                  <c:v>1.542170312620062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6267710112718181</c:v>
+                  <c:v>1.626771011271818</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6866174497437685</c:v>
+                  <c:v>1.686617449743768</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6613193997032798</c:v>
+                  <c:v>1.66131939970328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7094979992079582</c:v>
+                  <c:v>1.709497999207958</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7624879568278136</c:v>
+                  <c:v>1.762487956827813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3523,139 +3552,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$J$12:$J$32</c:f>
+              <c:f>'South Africa Workbook'!$I$12:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0012022581544466</c:v>
+                  <c:v>1.001202258154447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0019236130471145</c:v>
+                  <c:v>1.001923613047115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0084332311123501</c:v>
+                  <c:v>1.00843323111235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0226826038472261</c:v>
+                  <c:v>1.022682603847226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0435775020908837</c:v>
+                  <c:v>1.043577502090884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0683196264287707</c:v>
+                  <c:v>1.068319626428771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0959889880122664</c:v>
+                  <c:v>1.095988988012266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1139392249790911</c:v>
+                  <c:v>1.113939224979091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1342939782548089</c:v>
+                  <c:v>1.134293978254809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1560252299972122</c:v>
+                  <c:v>1.156025229997212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1797672149428491</c:v>
+                  <c:v>1.17976721494285</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2125627265124059</c:v>
+                  <c:v>1.212562726512406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2579174797881238</c:v>
+                  <c:v>1.257917479788124</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.314402704209646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3844891274045164</c:v>
+                  <c:v>1.384489127404516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4726303317535545</c:v>
+                  <c:v>1.472630331753554</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.576303317535545</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6803038751045443</c:v>
+                  <c:v>1.680303875104544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7923264566490102</c:v>
+                  <c:v>1.79232645664901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9066211318650683</c:v>
+                  <c:v>1.906621131865068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,136 +3716,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$I$12:$I$31</c:f>
+              <c:f>'South Africa Workbook'!$J$12:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0210845372255797</c:v>
+                  <c:v>1.021084482867443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0596971632483345</c:v>
+                  <c:v>1.059697147948241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1703636576487721</c:v>
+                  <c:v>1.170363684947513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2756746133563346</c:v>
+                  <c:v>1.27567461719432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2422655192765304</c:v>
+                  <c:v>1.242265551158907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2908777146337129</c:v>
+                  <c:v>1.290877764616853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2885477532298402</c:v>
+                  <c:v>1.288547713494085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3403410507390767</c:v>
+                  <c:v>1.340341059502873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3387269646993742</c:v>
+                  <c:v>1.33872696872706</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3506065409001882</c:v>
+                  <c:v>1.350606551053589</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3693591756939629</c:v>
+                  <c:v>1.369359190343885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4075982751540539</c:v>
+                  <c:v>1.407598266092903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5013240843352373</c:v>
+                  <c:v>1.501324121509906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5184945387359419</c:v>
+                  <c:v>1.518494540732612</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5981624531196261</c:v>
+                  <c:v>1.598162469574014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6965748742426201</c:v>
+                  <c:v>1.696574918604214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7562529911543718</c:v>
+                  <c:v>1.756252951236534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7171889548231813</c:v>
+                  <c:v>1.71405541907807</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6556513331525751</c:v>
+                  <c:v>1.655651326002332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,67 +3877,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,67 +3949,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.023223977258189</c:v>
+                  <c:v>1.023228713861012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0228440588924905</c:v>
+                  <c:v>1.022803802804706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1101799281902336</c:v>
+                  <c:v>1.110092337047867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1269114098777182</c:v>
+                  <c:v>1.12668002291046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1420022128849308</c:v>
+                  <c:v>1.141875633777123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2319944871425148</c:v>
+                  <c:v>1.232005693856943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1749764962697931</c:v>
+                  <c:v>1.174822953607408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.223303612730045</c:v>
+                  <c:v>1.223189748250925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.255858640191122</c:v>
+                  <c:v>1.255775819207154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2719454291565899</c:v>
+                  <c:v>1.271915928349236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2442995539969122</c:v>
+                  <c:v>1.244169340389831</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3355798544452375</c:v>
+                  <c:v>1.335564396361262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4166448893422365</c:v>
+                  <c:v>1.416610988789697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.399246882793028</c:v>
+                  <c:v>1.399138207942815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.437609331156372</c:v>
+                  <c:v>1.437409899162473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4681914434380348</c:v>
+                  <c:v>1.467851449774696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5370025517024912</c:v>
+                  <c:v>1.536688603505073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5122261540654287</c:v>
+                  <c:v>1.511998474939706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5124721030136099</c:v>
+                  <c:v>1.512366801380099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5035097323501212</c:v>
+                  <c:v>1.50370993668744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,67 +4043,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,67 +4115,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0228981536646462</c:v>
+                  <c:v>1.02292317623149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0228606968374041</c:v>
+                  <c:v>1.022610056144215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1107699615605198</c:v>
+                  <c:v>1.11023224643875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1284494698483738</c:v>
+                  <c:v>1.127028719083378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1431869121822504</c:v>
+                  <c:v>1.142414433971417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2323683396880409</c:v>
+                  <c:v>1.232443336255847</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1767654191622396</c:v>
+                  <c:v>1.175833244152566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2243610536226184</c:v>
+                  <c:v>1.223666055439392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2568659193211611</c:v>
+                  <c:v>1.256363687741737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2724649525000764</c:v>
+                  <c:v>1.272288275322009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2460069374503131</c:v>
+                  <c:v>1.245219020840683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3361087389206583</c:v>
+                  <c:v>1.336019703159173</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4172649172089296</c:v>
+                  <c:v>1.41706220806657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4002067553568909</c:v>
+                  <c:v>1.399542752091129</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4396400005068859</c:v>
+                  <c:v>1.438425184968052</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4707624486727449</c:v>
+                  <c:v>1.46867912752679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5388765379462122</c:v>
+                  <c:v>1.536945911935683</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5140189092510079</c:v>
+                  <c:v>1.512624779168352</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5140135069028198</c:v>
+                  <c:v>1.513378548225633</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5040369230546942</c:v>
+                  <c:v>1.505291841608075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,11 +4190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173349888"/>
-        <c:axId val="173356544"/>
+        <c:axId val="-2112830024"/>
+        <c:axId val="-2105977480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173349888"/>
+        <c:axId val="-2112830024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,18 +4216,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173356544"/>
+        <c:crossAx val="-2105977480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173356544"/>
+        <c:axId val="-2105977480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,13 +4250,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173349888"/>
+        <c:crossAx val="-2112830024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4243,7 +4274,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4254,7 +4285,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8572500" cy="5820833"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4909,32 +4940,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="68"/>
+    <col min="2" max="2" width="23.33203125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="68" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="69" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="69" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="68" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" style="68" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:12" ht="14" customHeight="1">
+      <c r="A1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:12">
@@ -4944,8 +4976,6 @@
       <c r="B2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -4953,12 +4983,9 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
       <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
       <c r="F3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4966,12 +4993,9 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2"/>
       <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -4979,12 +5003,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
       <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -4992,12 +5013,11 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
       <c r="B6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -5007,12 +5027,12 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" s="69" customFormat="1">
+    <row r="7" spans="1:12" s="68" customFormat="1">
       <c r="B7" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -5022,10 +5042,10 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" s="69" customFormat="1">
+    <row r="8" spans="1:12" s="68" customFormat="1">
       <c r="B8" s="16"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -5036,79 +5056,64 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="14" customHeight="1">
+      <c r="A10" s="62"/>
+      <c r="G10" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="62"/>
-      <c r="B10" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="28">
       <c r="A11" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
+      <c r="B11" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="98" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
@@ -5117,19 +5122,22 @@
       <c r="B12" s="1">
         <v>169183</v>
       </c>
-      <c r="C12" s="74">
-        <v>8243055</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>286960</v>
       </c>
+      <c r="D12" s="73">
+        <f>'Employment Data'!F8</f>
+        <v>8243054.9752000002</v>
+      </c>
       <c r="E12" s="16">
-        <v>4207339.9685506048</v>
+        <f>'Exergy calcs'!AO32</f>
+        <v>4150082.7620710689</v>
       </c>
       <c r="F12" s="64">
-        <v>4500393.0954026589</v>
-      </c>
-      <c r="G12" s="72">
+        <f>'Exergy calcs'!AD32</f>
+        <v>4490451.7342776405</v>
+      </c>
+      <c r="G12" s="71">
         <f>A12-$A$12</f>
         <v>0</v>
       </c>
@@ -5161,41 +5169,44 @@
       <c r="B13" s="1">
         <v>165567</v>
       </c>
-      <c r="C13" s="74">
-        <v>8416856</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <v>287305</v>
       </c>
-      <c r="E13" s="20">
-        <v>4303680.2856698846</v>
+      <c r="D13" s="73">
+        <f>'Employment Data'!F9</f>
+        <v>8416855.5265999995</v>
+      </c>
+      <c r="E13" s="16">
+        <f>'Exergy calcs'!AO33</f>
+        <v>4245215.8406012924</v>
       </c>
       <c r="F13" s="64">
-        <v>4604910.1223032009</v>
-      </c>
-      <c r="G13" s="72">
-        <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
+        <f>'Exergy calcs'!AD33</f>
+        <v>4594759.1527198628</v>
+      </c>
+      <c r="G13" s="71">
+        <f>A13-$A$12</f>
         <v>1</v>
       </c>
       <c r="H13" s="21">
-        <f t="shared" ref="H13:H32" si="2">B13/$B$12</f>
+        <f>B13/$B$12</f>
         <v>0.97862669417140025</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
-        <v>1.0210845372255797</v>
+        <f>C13/$C$12</f>
+        <v>1.0012022581544466</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
-        <v>1.0012022581544466</v>
-      </c>
-      <c r="K13" s="66">
+        <f>D13/$D$12</f>
+        <v>1.0210844828674435</v>
+      </c>
+      <c r="K13" s="65">
         <f t="shared" si="0"/>
-        <v>1.0228981536646462</v>
+        <v>1.0229231762314899</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
-        <v>1.023223977258189</v>
+        <f t="shared" ref="L13:L32" si="1">F13/$F$12</f>
+        <v>1.0232287138610123</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5205,41 +5216,44 @@
       <c r="B14" s="1">
         <v>167610</v>
       </c>
-      <c r="C14" s="74">
-        <v>8735142</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <v>287512</v>
       </c>
+      <c r="D14" s="73">
+        <f>'Employment Data'!F10</f>
+        <v>8735141.8476</v>
+      </c>
       <c r="E14" s="16">
-        <v>4303522.6920635337</v>
+        <f>'Exergy calcs'!AO34</f>
+        <v>4243916.3663246352</v>
       </c>
       <c r="F14" s="64">
-        <v>4603200.3403133955</v>
-      </c>
-      <c r="G14" s="72">
+        <f>'Exergy calcs'!AD34</f>
+        <v>4592851.1101301583</v>
+      </c>
+      <c r="G14" s="71">
+        <f>A14-$A$12</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="21">
+        <f>B14/$B$12</f>
+        <v>0.99070237553418483</v>
+      </c>
+      <c r="I14" s="5">
+        <f>C14/$C$12</f>
+        <v>1.0019236130471145</v>
+      </c>
+      <c r="J14" s="5">
+        <f>D14/$D$12</f>
+        <v>1.0596971479482411</v>
+      </c>
+      <c r="K14" s="65">
+        <f t="shared" si="0"/>
+        <v>1.0226100561442151</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="21">
-        <f t="shared" si="2"/>
-        <v>0.99070237553418483</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0596971632483345</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0019236130471145</v>
-      </c>
-      <c r="K14" s="66">
-        <f t="shared" si="0"/>
-        <v>1.0228606968374041</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0228440588924905</v>
+        <v>1.0228038028047062</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5249,41 +5263,44 @@
       <c r="B15" s="1">
         <v>173030</v>
       </c>
-      <c r="C15" s="74">
-        <v>9647372</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
         <v>289380</v>
       </c>
+      <c r="D15" s="73">
+        <f>'Employment Data'!F11</f>
+        <v>9647372.1959999986</v>
+      </c>
       <c r="E15" s="16">
-        <v>4673386.8551389938</v>
+        <f>'Exergy calcs'!AO35</f>
+        <v>4607555.7078408925</v>
       </c>
       <c r="F15" s="64">
-        <v>4996246.083481947</v>
-      </c>
-      <c r="G15" s="72">
+        <f>'Exergy calcs'!AD35</f>
+        <v>4984816.060104914</v>
+      </c>
+      <c r="G15" s="71">
+        <f>A15-$A$12</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="21">
+        <f>B15/$B$12</f>
+        <v>1.0227386912396637</v>
+      </c>
+      <c r="I15" s="5">
+        <f>C15/$C$12</f>
+        <v>1.0084332311123501</v>
+      </c>
+      <c r="J15" s="5">
+        <f>D15/$D$12</f>
+        <v>1.1703636849475125</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" si="0"/>
+        <v>1.1102322464387493</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H15" s="21">
-        <f t="shared" si="2"/>
-        <v>1.0227386912396637</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
-        <v>1.1703636576487721</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0084332311123501</v>
-      </c>
-      <c r="K15" s="66">
-        <f t="shared" si="0"/>
-        <v>1.1107699615605198</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1101799281902336</v>
+        <v>1.1100923370478673</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5293,41 +5310,44 @@
       <c r="B16" s="1">
         <v>178421</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="1">
+        <v>293469</v>
+      </c>
+      <c r="D16" s="73">
+        <f>'Employment Data'!F12</f>
         <v>10515456</v>
       </c>
-      <c r="D16" s="1">
-        <v>293469</v>
-      </c>
       <c r="E16" s="16">
-        <v>4747770.5569828041</v>
+        <f>'Exergy calcs'!AO36</f>
+        <v>4677262.4594269637</v>
       </c>
       <c r="F16" s="64">
-        <v>5071544.3281441592</v>
-      </c>
-      <c r="G16" s="72">
+        <f>'Exergy calcs'!AD36</f>
+        <v>5059302.2628542436</v>
+      </c>
+      <c r="G16" s="71">
+        <f>A16-$A$12</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="21">
+        <f>B16/$B$12</f>
+        <v>1.0546035949238399</v>
+      </c>
+      <c r="I16" s="5">
+        <f>C16/$C$12</f>
+        <v>1.0226826038472261</v>
+      </c>
+      <c r="J16" s="5">
+        <f>D16/$D$12</f>
+        <v>1.2756746171943205</v>
+      </c>
+      <c r="K16" s="65">
+        <f t="shared" si="0"/>
+        <v>1.1270287190833779</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" si="2"/>
-        <v>1.0546035949238399</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2756746133563346</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0226826038472261</v>
-      </c>
-      <c r="K16" s="66">
-        <f t="shared" si="0"/>
-        <v>1.1284494698483738</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1269114098777182</v>
+        <v>1.1266800229104592</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5337,41 +5357,44 @@
       <c r="B17" s="1">
         <v>186106</v>
       </c>
-      <c r="C17" s="74">
-        <v>10240063</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
         <v>299465</v>
       </c>
+      <c r="D17" s="73">
+        <f>'Employment Data'!F13</f>
+        <v>10240063.231999999</v>
+      </c>
       <c r="E17" s="16">
-        <v>4809775.9871483324</v>
+        <f>'Exergy calcs'!AO37</f>
+        <v>4741114.4495659564</v>
       </c>
       <c r="F17" s="64">
-        <v>5139458.8738019001</v>
-      </c>
-      <c r="G17" s="72">
+        <f>'Exergy calcs'!AD37</f>
+        <v>5127537.4200238613</v>
+      </c>
+      <c r="G17" s="71">
+        <f>A17-$A$12</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="21">
+        <f>B17/$B$12</f>
+        <v>1.1000277805689698</v>
+      </c>
+      <c r="I17" s="5">
+        <f>C17/$C$12</f>
+        <v>1.0435775020908837</v>
+      </c>
+      <c r="J17" s="5">
+        <f>D17/$D$12</f>
+        <v>1.2422655511589069</v>
+      </c>
+      <c r="K17" s="65">
+        <f t="shared" si="0"/>
+        <v>1.1424144339714173</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H17" s="21">
-        <f t="shared" si="2"/>
-        <v>1.1000277805689698</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2422655192765304</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0435775020908837</v>
-      </c>
-      <c r="K17" s="66">
-        <f t="shared" si="0"/>
-        <v>1.1431869121822504</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1420022128849308</v>
+        <v>1.141875633777123</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5381,41 +5404,44 @@
       <c r="B18" s="1">
         <v>191031</v>
       </c>
-      <c r="C18" s="74">
-        <v>10640776</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
         <v>306565</v>
       </c>
+      <c r="D18" s="73">
+        <f>'Employment Data'!F14</f>
+        <v>10640776.380000001</v>
+      </c>
       <c r="E18" s="16">
-        <v>5184992.571545843</v>
+        <f>'Exergy calcs'!AO38</f>
+        <v>5114741.8450247487</v>
       </c>
       <c r="F18" s="64">
-        <v>5544459.4835103136</v>
-      </c>
-      <c r="G18" s="72">
+        <f>'Exergy calcs'!AD38</f>
+        <v>5532262.1046198383</v>
+      </c>
+      <c r="G18" s="71">
+        <f>A18-$A$12</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="21">
+        <f>B18/$B$12</f>
+        <v>1.1291382703935975</v>
+      </c>
+      <c r="I18" s="5">
+        <f>C18/$C$12</f>
+        <v>1.0683196264287707</v>
+      </c>
+      <c r="J18" s="5">
+        <f>D18/$D$12</f>
+        <v>1.2908777646168526</v>
+      </c>
+      <c r="K18" s="65">
+        <f t="shared" si="0"/>
+        <v>1.2324433362558471</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="21">
-        <f t="shared" si="2"/>
-        <v>1.1291382703935975</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2908777146337129</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0683196264287707</v>
-      </c>
-      <c r="K18" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2323683396880409</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2319944871425148</v>
+        <v>1.2320056938569433</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5425,41 +5451,44 @@
       <c r="B19" s="1">
         <v>192020</v>
       </c>
-      <c r="C19" s="74">
-        <v>10621570</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
         <v>314505</v>
       </c>
+      <c r="D19" s="73">
+        <f>'Employment Data'!F15</f>
+        <v>10621569.6405</v>
+      </c>
       <c r="E19" s="16">
-        <v>4951052.1816494968</v>
+        <f>'Exergy calcs'!AO39</f>
+        <v>4879805.2776276646</v>
       </c>
       <c r="F19" s="64">
-        <v>5287856.1110729845</v>
-      </c>
-      <c r="G19" s="72">
+        <f>'Exergy calcs'!AD39</f>
+        <v>5275485.7694955673</v>
+      </c>
+      <c r="G19" s="71">
+        <f>A19-$A$12</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="21">
+        <f>B19/$B$12</f>
+        <v>1.134984011395944</v>
+      </c>
+      <c r="I19" s="5">
+        <f>C19/$C$12</f>
+        <v>1.0959889880122664</v>
+      </c>
+      <c r="J19" s="5">
+        <f>D19/$D$12</f>
+        <v>1.2885477134940848</v>
+      </c>
+      <c r="K19" s="65">
+        <f t="shared" si="0"/>
+        <v>1.1758332441525656</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H19" s="21">
-        <f t="shared" si="2"/>
-        <v>1.134984011395944</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2885477532298402</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0959889880122664</v>
-      </c>
-      <c r="K19" s="66">
-        <f t="shared" si="0"/>
-        <v>1.1767654191622396</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1749764962697931</v>
+        <v>1.1748229536074084</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5469,41 +5498,44 @@
       <c r="B20" s="1">
         <v>196548</v>
       </c>
-      <c r="C20" s="74">
-        <v>11048505</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
         <v>319656</v>
       </c>
+      <c r="D20" s="73">
+        <f>'Employment Data'!F16</f>
+        <v>11048505.039000001</v>
+      </c>
       <c r="E20" s="16">
-        <v>5151303.1968431724</v>
+        <f>'Exergy calcs'!AO40</f>
+        <v>5078315.4032105198</v>
       </c>
       <c r="F20" s="64">
-        <v>5505347.1323114224</v>
-      </c>
-      <c r="G20" s="72">
+        <f>'Exergy calcs'!AD40</f>
+        <v>5492674.5263839951</v>
+      </c>
+      <c r="G20" s="71">
+        <f>A20-$A$12</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="21">
+        <f>B20/$B$12</f>
+        <v>1.1617479297565358</v>
+      </c>
+      <c r="I20" s="5">
+        <f>C20/$C$12</f>
+        <v>1.1139392249790911</v>
+      </c>
+      <c r="J20" s="5">
+        <f>D20/$D$12</f>
+        <v>1.3403410595028735</v>
+      </c>
+      <c r="K20" s="65">
+        <f t="shared" si="0"/>
+        <v>1.2236660554393917</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="2"/>
-        <v>1.1617479297565358</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3403410507390767</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1139392249790911</v>
-      </c>
-      <c r="K20" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2243610536226184</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="5"/>
-        <v>1.223303612730045</v>
+        <v>1.2231897482509246</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5513,41 +5545,44 @@
       <c r="B21" s="1">
         <v>204713</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="1">
+        <v>325497</v>
+      </c>
+      <c r="D21" s="73">
+        <f>'Employment Data'!F17</f>
         <v>11035200</v>
       </c>
-      <c r="D21" s="1">
-        <v>325497</v>
-      </c>
       <c r="E21" s="16">
-        <v>5288062.2174690207</v>
+        <f>'Exergy calcs'!AO41</f>
+        <v>5214013.2833890207</v>
       </c>
       <c r="F21" s="64">
-        <v>5651857.5531178974</v>
-      </c>
-      <c r="G21" s="72">
+        <f>'Exergy calcs'!AD41</f>
+        <v>5639000.7052226886</v>
+      </c>
+      <c r="G21" s="71">
+        <f>A21-$A$12</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="21">
+        <f>B21/$B$12</f>
+        <v>1.2100092798921878</v>
+      </c>
+      <c r="I21" s="5">
+        <f>C21/$C$12</f>
+        <v>1.1342939782548089</v>
+      </c>
+      <c r="J21" s="5">
+        <f>D21/$D$12</f>
+        <v>1.3387269687270591</v>
+      </c>
+      <c r="K21" s="65">
+        <f t="shared" si="0"/>
+        <v>1.2563636877417368</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H21" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2100092798921878</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3387269646993742</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1342939782548089</v>
-      </c>
-      <c r="K21" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2568659193211611</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="5"/>
-        <v>1.255858640191122</v>
+        <v>1.2557758192071538</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5557,41 +5592,44 @@
       <c r="B22" s="1">
         <v>210313</v>
       </c>
-      <c r="C22" s="74">
-        <v>11133124</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
         <v>331733</v>
       </c>
+      <c r="D22" s="73">
+        <f>'Employment Data'!F18</f>
+        <v>11133124.0502</v>
+      </c>
       <c r="E22" s="16">
-        <v>5353692.6532334182</v>
-      </c>
-      <c r="F22" s="65">
-        <v>5724254.427105289</v>
-      </c>
-      <c r="G22" s="72">
+        <f>'Exergy calcs'!AO42</f>
+        <v>5280101.6397990007</v>
+      </c>
+      <c r="F22" s="64">
+        <f>'Exergy calcs'!AD42</f>
+        <v>5711477.0863111811</v>
+      </c>
+      <c r="G22" s="71">
+        <f>A22-$A$12</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="21">
+        <f>B22/$B$12</f>
+        <v>1.2431095322816121</v>
+      </c>
+      <c r="I22" s="5">
+        <f>C22/$C$12</f>
+        <v>1.1560252299972122</v>
+      </c>
+      <c r="J22" s="5">
+        <f>D22/$D$12</f>
+        <v>1.350606551053589</v>
+      </c>
+      <c r="K22" s="65">
+        <f t="shared" si="0"/>
+        <v>1.2722882753220093</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H22" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2431095322816121</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3506065409001882</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1560252299972122</v>
-      </c>
-      <c r="K22" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2724649525000764</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2719454291565899</v>
+        <v>1.2719159283492358</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5601,41 +5639,44 @@
       <c r="B23" s="1">
         <v>218027</v>
       </c>
-      <c r="C23" s="74">
-        <v>11287703</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
         <v>338546</v>
       </c>
+      <c r="D23" s="73">
+        <f>'Employment Data'!F19</f>
+        <v>11287703.086800002</v>
+      </c>
       <c r="E23" s="16">
-        <v>5242374.7890260359</v>
-      </c>
-      <c r="F23" s="65">
-        <v>5599837.1214203117</v>
-      </c>
-      <c r="G23" s="72">
+        <f>'Exergy calcs'!AO43</f>
+        <v>5167761.9933939334</v>
+      </c>
+      <c r="F23" s="64">
+        <f>'Exergy calcs'!AD43</f>
+        <v>5586882.3722885838</v>
+      </c>
+      <c r="G23" s="71">
+        <f>A23-$A$12</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="21">
+        <f>B23/$B$12</f>
+        <v>1.2887051299480443</v>
+      </c>
+      <c r="I23" s="5">
+        <f>C23/$C$12</f>
+        <v>1.1797672149428491</v>
+      </c>
+      <c r="J23" s="5">
+        <f>D23/$D$12</f>
+        <v>1.3693591903438846</v>
+      </c>
+      <c r="K23" s="65">
+        <f t="shared" si="0"/>
+        <v>1.245219020840683</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H23" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2887051299480443</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3693591756939629</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1797672149428491</v>
-      </c>
-      <c r="K23" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2460069374503131</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2442995539969122</v>
+        <v>1.2441693403898308</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5645,41 +5686,44 @@
       <c r="B24" s="1">
         <v>224457</v>
       </c>
-      <c r="C24" s="74">
-        <v>11602910</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
         <v>347957</v>
       </c>
+      <c r="D24" s="73">
+        <f>'Employment Data'!F20</f>
+        <v>11602909.8904</v>
+      </c>
       <c r="E24" s="16">
-        <v>5621463.6995906308</v>
-      </c>
-      <c r="F24" s="65">
-        <v>6010634.3553042347</v>
-      </c>
-      <c r="G24" s="72">
+        <f>'Exergy calcs'!AO44</f>
+        <v>5544592.3398681916</v>
+      </c>
+      <c r="F24" s="64">
+        <f>'Exergy calcs'!AD44</f>
+        <v>5997287.4598798994</v>
+      </c>
+      <c r="G24" s="71">
+        <f>A24-$A$12</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="21">
+        <f>B24/$B$12</f>
+        <v>1.32671131260233</v>
+      </c>
+      <c r="I24" s="5">
+        <f>C24/$C$12</f>
+        <v>1.2125627265124059</v>
+      </c>
+      <c r="J24" s="5">
+        <f>D24/$D$12</f>
+        <v>1.4075982660929032</v>
+      </c>
+      <c r="K24" s="65">
+        <f t="shared" si="0"/>
+        <v>1.3360197031591734</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" si="2"/>
-        <v>1.32671131260233</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4075982751540539</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2125627265124059</v>
-      </c>
-      <c r="K24" s="66">
-        <f t="shared" si="0"/>
-        <v>1.3361087389206583</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="5"/>
-        <v>1.3355798544452375</v>
+        <v>1.335564396361262</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5689,41 +5733,44 @@
       <c r="B25" s="1">
         <v>234680</v>
       </c>
-      <c r="C25" s="74">
-        <v>12375497</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
         <v>360972</v>
       </c>
+      <c r="D25" s="73">
+        <f>'Employment Data'!F21</f>
+        <v>12375497.269200001</v>
+      </c>
       <c r="E25" s="16">
-        <v>5962915.3321976932</v>
-      </c>
-      <c r="F25" s="65">
-        <v>6375458.8786332654</v>
-      </c>
-      <c r="G25" s="72">
+        <f>'Exergy calcs'!AO45</f>
+        <v>5880925.4424794391</v>
+      </c>
+      <c r="F25" s="64">
+        <f>'Exergy calcs'!AD45</f>
+        <v>6361223.2714074589</v>
+      </c>
+      <c r="G25" s="71">
+        <f>A25-$A$12</f>
+        <v>13</v>
+      </c>
+      <c r="H25" s="21">
+        <f>B25/$B$12</f>
+        <v>1.3871370054910954</v>
+      </c>
+      <c r="I25" s="5">
+        <f>C25/$C$12</f>
+        <v>1.2579174797881238</v>
+      </c>
+      <c r="J25" s="5">
+        <f>D25/$D$12</f>
+        <v>1.501324121509906</v>
+      </c>
+      <c r="K25" s="65">
+        <f t="shared" si="0"/>
+        <v>1.4170622080665702</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H25" s="21">
-        <f t="shared" si="2"/>
-        <v>1.3871370054910954</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5013240843352373</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2579174797881238</v>
-      </c>
-      <c r="K25" s="66">
-        <f t="shared" si="0"/>
-        <v>1.4172649172089296</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="5"/>
-        <v>1.4166448893422365</v>
+        <v>1.4166109887896972</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5733,41 +5780,44 @@
       <c r="B26" s="1">
         <v>247064</v>
       </c>
-      <c r="C26" s="74">
-        <v>12517034</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
         <v>377181</v>
       </c>
+      <c r="D26" s="73">
+        <f>'Employment Data'!F22</f>
+        <v>12517033.978800001</v>
+      </c>
       <c r="E26" s="16">
-        <v>5891145.8460476054</v>
-      </c>
-      <c r="F26" s="65">
-        <v>6297161.0100854365</v>
-      </c>
-      <c r="G26" s="72">
+        <f>'Exergy calcs'!AO46</f>
+        <v>5808218.2502349</v>
+      </c>
+      <c r="F26" s="64">
+        <f>'Exergy calcs'!AD46</f>
+        <v>6282762.5923509225</v>
+      </c>
+      <c r="G26" s="71">
+        <f>A26-$A$12</f>
+        <v>14</v>
+      </c>
+      <c r="H26" s="21">
+        <f>B26/$B$12</f>
+        <v>1.4603358493465655</v>
+      </c>
+      <c r="I26" s="5">
+        <f>C26/$C$12</f>
+        <v>1.314402704209646</v>
+      </c>
+      <c r="J26" s="5">
+        <f>D26/$D$12</f>
+        <v>1.5184945407326125</v>
+      </c>
+      <c r="K26" s="65">
+        <f t="shared" si="0"/>
+        <v>1.3995427520911294</v>
+      </c>
+      <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H26" s="21">
-        <f t="shared" si="2"/>
-        <v>1.4603358493465655</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5184945387359419</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="4"/>
-        <v>1.314402704209646</v>
-      </c>
-      <c r="K26" s="66">
-        <f t="shared" si="0"/>
-        <v>1.4002067553568909</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="5"/>
-        <v>1.399246882793028</v>
+        <v>1.3991382079428147</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5777,41 +5827,44 @@
       <c r="B27" s="1">
         <v>260909</v>
       </c>
-      <c r="C27" s="74">
-        <v>13173741</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
         <v>397293</v>
       </c>
+      <c r="D27" s="73">
+        <f>'Employment Data'!F23</f>
+        <v>13173741.095999999</v>
+      </c>
       <c r="E27" s="16">
-        <v>6057054.9144568341</v>
-      </c>
-      <c r="F27" s="65">
-        <v>6469807.1078225709</v>
-      </c>
-      <c r="G27" s="72">
+        <f>'Exergy calcs'!AO47</f>
+        <v>5969583.5646648025</v>
+      </c>
+      <c r="F27" s="64">
+        <f>'Exergy calcs'!AD47</f>
+        <v>6454619.7745619761</v>
+      </c>
+      <c r="G27" s="71">
+        <f>A27-$A$12</f>
+        <v>15</v>
+      </c>
+      <c r="H27" s="21">
+        <f>B27/$B$12</f>
+        <v>1.5421703126200623</v>
+      </c>
+      <c r="I27" s="5">
+        <f>C27/$C$12</f>
+        <v>1.3844891274045164</v>
+      </c>
+      <c r="J27" s="5">
+        <f>D27/$D$12</f>
+        <v>1.5981624695740144</v>
+      </c>
+      <c r="K27" s="65">
+        <f t="shared" si="0"/>
+        <v>1.4384251849680523</v>
+      </c>
+      <c r="L27" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="2"/>
-        <v>1.5421703126200623</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5981624531196261</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="4"/>
-        <v>1.3844891274045164</v>
-      </c>
-      <c r="K27" s="66">
-        <f t="shared" si="0"/>
-        <v>1.4396400005068859</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="5"/>
-        <v>1.437609331156372</v>
+        <v>1.4374098991624733</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5821,41 +5874,44 @@
       <c r="B28" s="1">
         <v>275222</v>
       </c>
-      <c r="C28" s="74">
-        <v>13984960</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
         <v>422586</v>
       </c>
+      <c r="D28" s="73">
+        <f>'Employment Data'!F24</f>
+        <v>13984960.3236</v>
+      </c>
       <c r="E28" s="16">
-        <v>6187997.6345441965</v>
-      </c>
-      <c r="F28" s="65">
-        <v>6607438.6347777946</v>
-      </c>
-      <c r="G28" s="72">
+        <f>'Exergy calcs'!AO48</f>
+        <v>6095139.9301625052</v>
+      </c>
+      <c r="F28" s="64">
+        <f>'Exergy calcs'!AD48</f>
+        <v>6591316.0883027315</v>
+      </c>
+      <c r="G28" s="71">
+        <f>A28-$A$12</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="21">
+        <f>B28/$B$12</f>
+        <v>1.6267710112718181</v>
+      </c>
+      <c r="I28" s="5">
+        <f>C28/$C$12</f>
+        <v>1.4726303317535545</v>
+      </c>
+      <c r="J28" s="5">
+        <f>D28/$D$12</f>
+        <v>1.6965749186042138</v>
+      </c>
+      <c r="K28" s="65">
+        <f t="shared" si="0"/>
+        <v>1.4686791275267892</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="2"/>
-        <v>1.6267710112718181</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6965748742426201</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="4"/>
-        <v>1.4726303317535545</v>
-      </c>
-      <c r="K28" s="66">
-        <f t="shared" si="0"/>
-        <v>1.4707624486727449</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="5"/>
-        <v>1.4681914434380348</v>
+        <v>1.4678514497746957</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5865,41 +5921,44 @@
       <c r="B29" s="1">
         <v>285347</v>
       </c>
-      <c r="C29" s="74">
-        <v>14476890</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
         <v>452336</v>
       </c>
+      <c r="D29" s="73">
+        <f>'Employment Data'!F25</f>
+        <v>14476889.6274</v>
+      </c>
       <c r="E29" s="16">
-        <v>6474576.7647658801</v>
-      </c>
-      <c r="F29" s="65">
-        <v>6917115.6712981602</v>
-      </c>
-      <c r="G29" s="72">
+        <f>'Exergy calcs'!AO49</f>
+        <v>6378452.7353598792</v>
+      </c>
+      <c r="F29" s="64">
+        <f>'Exergy calcs'!AD49</f>
+        <v>6900426.0046540415</v>
+      </c>
+      <c r="G29" s="71">
+        <f>A29-$A$12</f>
+        <v>17</v>
+      </c>
+      <c r="H29" s="21">
+        <f>B29/$B$12</f>
+        <v>1.6866174497437685</v>
+      </c>
+      <c r="I29" s="5">
+        <f>C29/$C$12</f>
+        <v>1.576303317535545</v>
+      </c>
+      <c r="J29" s="5">
+        <f>D29/$D$12</f>
+        <v>1.7562529512365346</v>
+      </c>
+      <c r="K29" s="65">
+        <f t="shared" si="0"/>
+        <v>1.5369459119356834</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H29" s="21">
-        <f t="shared" si="2"/>
-        <v>1.6866174497437685</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7562529911543718</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="4"/>
-        <v>1.576303317535545</v>
-      </c>
-      <c r="K29" s="66">
-        <f t="shared" si="0"/>
-        <v>1.5388765379462122</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5370025517024912</v>
+        <v>1.5366886035050733</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5909,41 +5968,44 @@
       <c r="B30" s="1">
         <v>281067</v>
       </c>
-      <c r="C30" s="74">
-        <v>14154883</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1">
         <v>482180</v>
       </c>
+      <c r="D30" s="73">
+        <f>'Employment Data'!F26</f>
+        <v>14129053.050000001</v>
+      </c>
       <c r="E30" s="16">
-        <v>6369992.2700331565</v>
-      </c>
-      <c r="F30" s="65">
-        <v>6805612.1424433729</v>
-      </c>
-      <c r="G30" s="72">
-        <f t="shared" si="1"/>
+        <f>'Exergy calcs'!AO50</f>
+        <v>6277518.0215081368</v>
+      </c>
+      <c r="F30" s="64">
+        <f>'Exergy calcs'!AD50</f>
+        <v>6789556.1740181493</v>
+      </c>
+      <c r="G30" s="71">
+        <f>A30-$A$12</f>
         <v>18</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="2"/>
+        <f>B30/$B$12</f>
         <v>1.6613193997032798</v>
       </c>
       <c r="I30" s="5">
         <f>C30/$C$12</f>
-        <v>1.7171889548231813</v>
+        <v>1.6803038751045443</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6803038751045443</v>
-      </c>
-      <c r="K30" s="66">
+        <f>D30/$D$12</f>
+        <v>1.7140554190780692</v>
+      </c>
+      <c r="K30" s="65">
         <f t="shared" si="0"/>
-        <v>1.5140189092510079</v>
+        <v>1.5126247791683525</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5122261540654287</v>
+        <f t="shared" si="1"/>
+        <v>1.5119984749397057</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -5953,41 +6015,44 @@
       <c r="B31" s="1">
         <v>289218</v>
       </c>
-      <c r="C31" s="74">
-        <v>13647625</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
         <v>514326</v>
       </c>
+      <c r="D31" s="73">
+        <f>'Employment Data'!F27</f>
+        <v>13647624.9</v>
+      </c>
       <c r="E31" s="16">
-        <v>6369969.5405177008</v>
-      </c>
-      <c r="F31" s="65">
-        <v>6806719.0093915891</v>
-      </c>
-      <c r="G31" s="72">
+        <f>'Exergy calcs'!AO51</f>
+        <v>6280646.2254793411</v>
+      </c>
+      <c r="F31" s="64">
+        <f>'Exergy calcs'!AD51</f>
+        <v>6791210.1261211922</v>
+      </c>
+      <c r="G31" s="71">
+        <f>A31-$A$12</f>
+        <v>19</v>
+      </c>
+      <c r="H31" s="21">
+        <f>B31/$B$12</f>
+        <v>1.7094979992079582</v>
+      </c>
+      <c r="I31" s="5">
+        <f>C31/$C$12</f>
+        <v>1.7923264566490102</v>
+      </c>
+      <c r="J31" s="5">
+        <f>D31/$D$12</f>
+        <v>1.655651326002332</v>
+      </c>
+      <c r="K31" s="65">
+        <f t="shared" si="0"/>
+        <v>1.5133785482256334</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H31" s="21">
-        <f t="shared" si="2"/>
-        <v>1.7094979992079582</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6556513331525751</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7923264566490102</v>
-      </c>
-      <c r="K31" s="66">
-        <f t="shared" si="0"/>
-        <v>1.5140135069028198</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5124721030136099</v>
+        <v>1.5123668013800988</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5997,100 +6062,89 @@
       <c r="B32" s="1">
         <v>298183</v>
       </c>
-      <c r="C32" s="75">
-        <v>13810185</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="1">
         <v>547124</v>
       </c>
+      <c r="D32" s="73">
+        <f>'Employment Data'!F28</f>
+        <v>13810184.660999998</v>
+      </c>
       <c r="E32" s="16">
-        <v>6327994.6605438851</v>
-      </c>
-      <c r="F32" s="65">
-        <v>6766384.8183391849</v>
-      </c>
-      <c r="G32" s="72">
+        <f>'Exergy calcs'!AO52</f>
+        <v>6247085.7237438848</v>
+      </c>
+      <c r="F32" s="64">
+        <f>'Exergy calcs'!AD52</f>
+        <v>6752336.8930486357</v>
+      </c>
+      <c r="G32" s="71">
+        <f>A32-$A$12</f>
+        <v>20</v>
+      </c>
+      <c r="H32" s="21">
+        <f>B32/$B$12</f>
+        <v>1.7624879568278136</v>
+      </c>
+      <c r="I32" s="5">
+        <f>C32/$C$12</f>
+        <v>1.9066211318650683</v>
+      </c>
+      <c r="J32" s="65">
+        <f>D32/$D$12</f>
+        <v>1.6753721408566637</v>
+      </c>
+      <c r="K32" s="65">
+        <f t="shared" si="0"/>
+        <v>1.5052918416080747</v>
+      </c>
+      <c r="L32" s="65">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H32" s="21">
-        <f t="shared" si="2"/>
-        <v>1.7624879568278136</v>
-      </c>
-      <c r="I32" s="66">
-        <f t="shared" si="3"/>
-        <v>1.6753721769416801</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="4"/>
-        <v>1.9066211318650683</v>
-      </c>
-      <c r="K32" s="66">
-        <f t="shared" si="0"/>
-        <v>1.5040369230546942</v>
-      </c>
-      <c r="L32" s="66">
-        <f t="shared" si="5"/>
-        <v>1.5035097323501212</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="G33" s="72"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="2"/>
+        <v>1.50370993668744</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="G33" s="71"/>
+    </row>
+    <row r="34" spans="3:12">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="72"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="2:12">
-      <c r="G35" s="72"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="G36" s="72"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="G37" s="72"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="G38" s="72"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="G39" s="72"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="G40" s="72"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="G41" s="72"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="G42" s="72"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="G43" s="72"/>
+    <row r="35" spans="3:12">
+      <c r="G35" s="71"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="G36" s="71"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="G37" s="71"/>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="G38" s="71"/>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="G39" s="71"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="G40" s="71"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="G41" s="71"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="G42" s="71"/>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="G43" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E10:E11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -6103,55 +6157,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J2" sqref="J2:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="8.85546875" style="71"/>
+    <col min="1" max="9" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="71" t="str">
+    <row r="1" spans="1:10">
+      <c r="A1" s="70" t="str">
         <f>'South Africa Workbook'!A11</f>
         <v>Year</v>
       </c>
-      <c r="B1" s="71" t="str">
-        <f>'South Africa Workbook'!G9</f>
+      <c r="B1" s="70" t="str">
+        <f>'South Africa Workbook'!G10</f>
         <v>iYear</v>
       </c>
-      <c r="C1" s="71" t="str">
-        <f>'South Africa Workbook'!H9</f>
+      <c r="C1" s="70" t="str">
+        <f>'South Africa Workbook'!H10</f>
         <v>iGDP</v>
       </c>
-      <c r="D1" s="71" t="str">
-        <f>'South Africa Workbook'!I9</f>
-        <v>iLabor</v>
-      </c>
-      <c r="E1" s="71" t="str">
-        <f>'South Africa Workbook'!J9</f>
-        <v>iCapStk</v>
-      </c>
-      <c r="F1" s="71" t="str">
-        <f>'South Africa Workbook'!K9</f>
+      <c r="D1" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="70" t="str">
+        <f>'South Africa Workbook'!K10</f>
         <v>iQ</v>
       </c>
-      <c r="G1" s="71" t="str">
-        <f>'South Africa Workbook'!L9</f>
+      <c r="G1" s="70" t="str">
+        <f>'South Africa Workbook'!L10</f>
         <v>iX</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="71">
+      <c r="J1" s="100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="70">
         <f>'South Africa Workbook'!A12</f>
         <v>1991</v>
       </c>
@@ -6159,35 +6214,38 @@
         <f>'South Africa Workbook'!G12</f>
         <v>0</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="72">
         <f>'South Africa Workbook'!H12</f>
         <v>1</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="72">
         <f>'South Africa Workbook'!I12</f>
         <v>1</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="72">
         <f>'South Africa Workbook'!J12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="72">
         <f>'South Africa Workbook'!K12</f>
         <v>1</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="72">
         <f>'South Africa Workbook'!L12</f>
         <v>1</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="71">
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="70">
         <f>'South Africa Workbook'!A13</f>
         <v>1992</v>
       </c>
@@ -6195,35 +6253,38 @@
         <f>'South Africa Workbook'!G13</f>
         <v>1</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="72">
         <f>'South Africa Workbook'!H13</f>
         <v>0.97862669417140025</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="72">
         <f>'South Africa Workbook'!I13</f>
-        <v>1.0210845372255797</v>
-      </c>
-      <c r="E3" s="73">
+        <v>1.0012022581544466</v>
+      </c>
+      <c r="E3" s="72">
         <f>'South Africa Workbook'!J13</f>
-        <v>1.0012022581544466</v>
-      </c>
-      <c r="F3" s="73">
+        <v>1.0210844828674435</v>
+      </c>
+      <c r="F3" s="72">
         <f>'South Africa Workbook'!K13</f>
-        <v>1.0228981536646462</v>
-      </c>
-      <c r="G3" s="73">
+        <v>1.0229231762314899</v>
+      </c>
+      <c r="G3" s="72">
         <f>'South Africa Workbook'!L13</f>
-        <v>1.023223977258189</v>
-      </c>
-      <c r="H3" s="73" t="s">
+        <v>1.0232287138610123</v>
+      </c>
+      <c r="H3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="71">
+      <c r="J3" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="70">
         <f>'South Africa Workbook'!A14</f>
         <v>1993</v>
       </c>
@@ -6231,35 +6292,38 @@
         <f>'South Africa Workbook'!G14</f>
         <v>2</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <f>'South Africa Workbook'!H14</f>
         <v>0.99070237553418483</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="72">
         <f>'South Africa Workbook'!I14</f>
-        <v>1.0596971632483345</v>
-      </c>
-      <c r="E4" s="73">
+        <v>1.0019236130471145</v>
+      </c>
+      <c r="E4" s="72">
         <f>'South Africa Workbook'!J14</f>
-        <v>1.0019236130471145</v>
-      </c>
-      <c r="F4" s="73">
+        <v>1.0596971479482411</v>
+      </c>
+      <c r="F4" s="72">
         <f>'South Africa Workbook'!K14</f>
-        <v>1.0228606968374041</v>
-      </c>
-      <c r="G4" s="73">
+        <v>1.0226100561442151</v>
+      </c>
+      <c r="G4" s="72">
         <f>'South Africa Workbook'!L14</f>
-        <v>1.0228440588924905</v>
-      </c>
-      <c r="H4" s="73" t="s">
+        <v>1.0228038028047062</v>
+      </c>
+      <c r="H4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="71">
+      <c r="J4" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="70">
         <f>'South Africa Workbook'!A15</f>
         <v>1994</v>
       </c>
@@ -6267,35 +6331,38 @@
         <f>'South Africa Workbook'!G15</f>
         <v>3</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <f>'South Africa Workbook'!H15</f>
         <v>1.0227386912396637</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="72">
         <f>'South Africa Workbook'!I15</f>
-        <v>1.1703636576487721</v>
-      </c>
-      <c r="E5" s="73">
+        <v>1.0084332311123501</v>
+      </c>
+      <c r="E5" s="72">
         <f>'South Africa Workbook'!J15</f>
-        <v>1.0084332311123501</v>
-      </c>
-      <c r="F5" s="73">
+        <v>1.1703636849475125</v>
+      </c>
+      <c r="F5" s="72">
         <f>'South Africa Workbook'!K15</f>
-        <v>1.1107699615605198</v>
-      </c>
-      <c r="G5" s="73">
+        <v>1.1102322464387493</v>
+      </c>
+      <c r="G5" s="72">
         <f>'South Africa Workbook'!L15</f>
-        <v>1.1101799281902336</v>
-      </c>
-      <c r="H5" s="73" t="s">
+        <v>1.1100923370478673</v>
+      </c>
+      <c r="H5" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="71">
+      <c r="J5" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="70">
         <f>'South Africa Workbook'!A16</f>
         <v>1995</v>
       </c>
@@ -6303,35 +6370,38 @@
         <f>'South Africa Workbook'!G16</f>
         <v>4</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <f>'South Africa Workbook'!H16</f>
         <v>1.0546035949238399</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <f>'South Africa Workbook'!I16</f>
-        <v>1.2756746133563346</v>
-      </c>
-      <c r="E6" s="73">
+        <v>1.0226826038472261</v>
+      </c>
+      <c r="E6" s="72">
         <f>'South Africa Workbook'!J16</f>
-        <v>1.0226826038472261</v>
-      </c>
-      <c r="F6" s="73">
+        <v>1.2756746171943205</v>
+      </c>
+      <c r="F6" s="72">
         <f>'South Africa Workbook'!K16</f>
-        <v>1.1284494698483738</v>
-      </c>
-      <c r="G6" s="73">
+        <v>1.1270287190833779</v>
+      </c>
+      <c r="G6" s="72">
         <f>'South Africa Workbook'!L16</f>
-        <v>1.1269114098777182</v>
-      </c>
-      <c r="H6" s="73" t="s">
+        <v>1.1266800229104592</v>
+      </c>
+      <c r="H6" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="71">
+      <c r="J6" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="70">
         <f>'South Africa Workbook'!A17</f>
         <v>1996</v>
       </c>
@@ -6339,35 +6409,38 @@
         <f>'South Africa Workbook'!G17</f>
         <v>5</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <f>'South Africa Workbook'!H17</f>
         <v>1.1000277805689698</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="72">
         <f>'South Africa Workbook'!I17</f>
-        <v>1.2422655192765304</v>
-      </c>
-      <c r="E7" s="73">
+        <v>1.0435775020908837</v>
+      </c>
+      <c r="E7" s="72">
         <f>'South Africa Workbook'!J17</f>
-        <v>1.0435775020908837</v>
-      </c>
-      <c r="F7" s="73">
+        <v>1.2422655511589069</v>
+      </c>
+      <c r="F7" s="72">
         <f>'South Africa Workbook'!K17</f>
-        <v>1.1431869121822504</v>
-      </c>
-      <c r="G7" s="73">
+        <v>1.1424144339714173</v>
+      </c>
+      <c r="G7" s="72">
         <f>'South Africa Workbook'!L17</f>
-        <v>1.1420022128849308</v>
-      </c>
-      <c r="H7" s="73" t="s">
+        <v>1.141875633777123</v>
+      </c>
+      <c r="H7" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="71">
+      <c r="J7" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="70">
         <f>'South Africa Workbook'!A18</f>
         <v>1997</v>
       </c>
@@ -6375,35 +6448,38 @@
         <f>'South Africa Workbook'!G18</f>
         <v>6</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <f>'South Africa Workbook'!H18</f>
         <v>1.1291382703935975</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <f>'South Africa Workbook'!I18</f>
-        <v>1.2908777146337129</v>
-      </c>
-      <c r="E8" s="73">
+        <v>1.0683196264287707</v>
+      </c>
+      <c r="E8" s="72">
         <f>'South Africa Workbook'!J18</f>
-        <v>1.0683196264287707</v>
-      </c>
-      <c r="F8" s="73">
+        <v>1.2908777646168526</v>
+      </c>
+      <c r="F8" s="72">
         <f>'South Africa Workbook'!K18</f>
-        <v>1.2323683396880409</v>
-      </c>
-      <c r="G8" s="73">
+        <v>1.2324433362558471</v>
+      </c>
+      <c r="G8" s="72">
         <f>'South Africa Workbook'!L18</f>
-        <v>1.2319944871425148</v>
-      </c>
-      <c r="H8" s="73" t="s">
+        <v>1.2320056938569433</v>
+      </c>
+      <c r="H8" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="71">
+      <c r="J8" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="70">
         <f>'South Africa Workbook'!A19</f>
         <v>1998</v>
       </c>
@@ -6411,35 +6487,38 @@
         <f>'South Africa Workbook'!G19</f>
         <v>7</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <f>'South Africa Workbook'!H19</f>
         <v>1.134984011395944</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <f>'South Africa Workbook'!I19</f>
-        <v>1.2885477532298402</v>
-      </c>
-      <c r="E9" s="73">
+        <v>1.0959889880122664</v>
+      </c>
+      <c r="E9" s="72">
         <f>'South Africa Workbook'!J19</f>
-        <v>1.0959889880122664</v>
-      </c>
-      <c r="F9" s="73">
+        <v>1.2885477134940848</v>
+      </c>
+      <c r="F9" s="72">
         <f>'South Africa Workbook'!K19</f>
-        <v>1.1767654191622396</v>
-      </c>
-      <c r="G9" s="73">
+        <v>1.1758332441525656</v>
+      </c>
+      <c r="G9" s="72">
         <f>'South Africa Workbook'!L19</f>
-        <v>1.1749764962697931</v>
-      </c>
-      <c r="H9" s="73" t="s">
+        <v>1.1748229536074084</v>
+      </c>
+      <c r="H9" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="71">
+      <c r="J9" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="70">
         <f>'South Africa Workbook'!A20</f>
         <v>1999</v>
       </c>
@@ -6447,35 +6526,38 @@
         <f>'South Africa Workbook'!G20</f>
         <v>8</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="72">
         <f>'South Africa Workbook'!H20</f>
         <v>1.1617479297565358</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <f>'South Africa Workbook'!I20</f>
-        <v>1.3403410507390767</v>
-      </c>
-      <c r="E10" s="73">
+        <v>1.1139392249790911</v>
+      </c>
+      <c r="E10" s="72">
         <f>'South Africa Workbook'!J20</f>
-        <v>1.1139392249790911</v>
-      </c>
-      <c r="F10" s="73">
+        <v>1.3403410595028735</v>
+      </c>
+      <c r="F10" s="72">
         <f>'South Africa Workbook'!K20</f>
-        <v>1.2243610536226184</v>
-      </c>
-      <c r="G10" s="73">
+        <v>1.2236660554393917</v>
+      </c>
+      <c r="G10" s="72">
         <f>'South Africa Workbook'!L20</f>
-        <v>1.223303612730045</v>
-      </c>
-      <c r="H10" s="73" t="s">
+        <v>1.2231897482509246</v>
+      </c>
+      <c r="H10" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="71">
+      <c r="J10" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="70">
         <f>'South Africa Workbook'!A21</f>
         <v>2000</v>
       </c>
@@ -6483,35 +6565,38 @@
         <f>'South Africa Workbook'!G21</f>
         <v>9</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="72">
         <f>'South Africa Workbook'!H21</f>
         <v>1.2100092798921878</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="72">
         <f>'South Africa Workbook'!I21</f>
-        <v>1.3387269646993742</v>
-      </c>
-      <c r="E11" s="73">
+        <v>1.1342939782548089</v>
+      </c>
+      <c r="E11" s="72">
         <f>'South Africa Workbook'!J21</f>
-        <v>1.1342939782548089</v>
-      </c>
-      <c r="F11" s="73">
+        <v>1.3387269687270591</v>
+      </c>
+      <c r="F11" s="72">
         <f>'South Africa Workbook'!K21</f>
-        <v>1.2568659193211611</v>
-      </c>
-      <c r="G11" s="73">
+        <v>1.2563636877417368</v>
+      </c>
+      <c r="G11" s="72">
         <f>'South Africa Workbook'!L21</f>
-        <v>1.255858640191122</v>
-      </c>
-      <c r="H11" s="73" t="s">
+        <v>1.2557758192071538</v>
+      </c>
+      <c r="H11" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="71">
+      <c r="J11" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="70">
         <f>'South Africa Workbook'!A22</f>
         <v>2001</v>
       </c>
@@ -6519,35 +6604,38 @@
         <f>'South Africa Workbook'!G22</f>
         <v>10</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <f>'South Africa Workbook'!H22</f>
         <v>1.2431095322816121</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <f>'South Africa Workbook'!I22</f>
-        <v>1.3506065409001882</v>
-      </c>
-      <c r="E12" s="73">
+        <v>1.1560252299972122</v>
+      </c>
+      <c r="E12" s="72">
         <f>'South Africa Workbook'!J22</f>
-        <v>1.1560252299972122</v>
-      </c>
-      <c r="F12" s="73">
+        <v>1.350606551053589</v>
+      </c>
+      <c r="F12" s="72">
         <f>'South Africa Workbook'!K22</f>
-        <v>1.2724649525000764</v>
-      </c>
-      <c r="G12" s="73">
+        <v>1.2722882753220093</v>
+      </c>
+      <c r="G12" s="72">
         <f>'South Africa Workbook'!L22</f>
-        <v>1.2719454291565899</v>
-      </c>
-      <c r="H12" s="73" t="s">
+        <v>1.2719159283492358</v>
+      </c>
+      <c r="H12" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="71">
+      <c r="J12" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="70">
         <f>'South Africa Workbook'!A23</f>
         <v>2002</v>
       </c>
@@ -6555,35 +6643,38 @@
         <f>'South Africa Workbook'!G23</f>
         <v>11</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <f>'South Africa Workbook'!H23</f>
         <v>1.2887051299480443</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="72">
         <f>'South Africa Workbook'!I23</f>
-        <v>1.3693591756939629</v>
-      </c>
-      <c r="E13" s="73">
+        <v>1.1797672149428491</v>
+      </c>
+      <c r="E13" s="72">
         <f>'South Africa Workbook'!J23</f>
-        <v>1.1797672149428491</v>
-      </c>
-      <c r="F13" s="73">
+        <v>1.3693591903438846</v>
+      </c>
+      <c r="F13" s="72">
         <f>'South Africa Workbook'!K23</f>
-        <v>1.2460069374503131</v>
-      </c>
-      <c r="G13" s="73">
+        <v>1.245219020840683</v>
+      </c>
+      <c r="G13" s="72">
         <f>'South Africa Workbook'!L23</f>
-        <v>1.2442995539969122</v>
-      </c>
-      <c r="H13" s="73" t="s">
+        <v>1.2441693403898308</v>
+      </c>
+      <c r="H13" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="71">
+      <c r="J13" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="70">
         <f>'South Africa Workbook'!A24</f>
         <v>2003</v>
       </c>
@@ -6591,35 +6682,38 @@
         <f>'South Africa Workbook'!G24</f>
         <v>12</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <f>'South Africa Workbook'!H24</f>
         <v>1.32671131260233</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="72">
         <f>'South Africa Workbook'!I24</f>
-        <v>1.4075982751540539</v>
-      </c>
-      <c r="E14" s="73">
+        <v>1.2125627265124059</v>
+      </c>
+      <c r="E14" s="72">
         <f>'South Africa Workbook'!J24</f>
-        <v>1.2125627265124059</v>
-      </c>
-      <c r="F14" s="73">
+        <v>1.4075982660929032</v>
+      </c>
+      <c r="F14" s="72">
         <f>'South Africa Workbook'!K24</f>
-        <v>1.3361087389206583</v>
-      </c>
-      <c r="G14" s="73">
+        <v>1.3360197031591734</v>
+      </c>
+      <c r="G14" s="72">
         <f>'South Africa Workbook'!L24</f>
-        <v>1.3355798544452375</v>
-      </c>
-      <c r="H14" s="73" t="s">
+        <v>1.335564396361262</v>
+      </c>
+      <c r="H14" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="71">
+      <c r="J14" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="70">
         <f>'South Africa Workbook'!A25</f>
         <v>2004</v>
       </c>
@@ -6627,35 +6721,38 @@
         <f>'South Africa Workbook'!G25</f>
         <v>13</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="72">
         <f>'South Africa Workbook'!H25</f>
         <v>1.3871370054910954</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="72">
         <f>'South Africa Workbook'!I25</f>
-        <v>1.5013240843352373</v>
-      </c>
-      <c r="E15" s="73">
+        <v>1.2579174797881238</v>
+      </c>
+      <c r="E15" s="72">
         <f>'South Africa Workbook'!J25</f>
-        <v>1.2579174797881238</v>
-      </c>
-      <c r="F15" s="73">
+        <v>1.501324121509906</v>
+      </c>
+      <c r="F15" s="72">
         <f>'South Africa Workbook'!K25</f>
-        <v>1.4172649172089296</v>
-      </c>
-      <c r="G15" s="73">
+        <v>1.4170622080665702</v>
+      </c>
+      <c r="G15" s="72">
         <f>'South Africa Workbook'!L25</f>
-        <v>1.4166448893422365</v>
-      </c>
-      <c r="H15" s="73" t="s">
+        <v>1.4166109887896972</v>
+      </c>
+      <c r="H15" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="71">
+      <c r="J15" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="70">
         <f>'South Africa Workbook'!A26</f>
         <v>2005</v>
       </c>
@@ -6663,35 +6760,38 @@
         <f>'South Africa Workbook'!G26</f>
         <v>14</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <f>'South Africa Workbook'!H26</f>
         <v>1.4603358493465655</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="72">
         <f>'South Africa Workbook'!I26</f>
-        <v>1.5184945387359419</v>
-      </c>
-      <c r="E16" s="73">
+        <v>1.314402704209646</v>
+      </c>
+      <c r="E16" s="72">
         <f>'South Africa Workbook'!J26</f>
-        <v>1.314402704209646</v>
-      </c>
-      <c r="F16" s="73">
+        <v>1.5184945407326125</v>
+      </c>
+      <c r="F16" s="72">
         <f>'South Africa Workbook'!K26</f>
-        <v>1.4002067553568909</v>
-      </c>
-      <c r="G16" s="73">
+        <v>1.3995427520911294</v>
+      </c>
+      <c r="G16" s="72">
         <f>'South Africa Workbook'!L26</f>
-        <v>1.399246882793028</v>
-      </c>
-      <c r="H16" s="73" t="s">
+        <v>1.3991382079428147</v>
+      </c>
+      <c r="H16" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="71">
+      <c r="J16" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="70">
         <f>'South Africa Workbook'!A27</f>
         <v>2006</v>
       </c>
@@ -6699,35 +6799,38 @@
         <f>'South Africa Workbook'!G27</f>
         <v>15</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="72">
         <f>'South Africa Workbook'!H27</f>
         <v>1.5421703126200623</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="72">
         <f>'South Africa Workbook'!I27</f>
-        <v>1.5981624531196261</v>
-      </c>
-      <c r="E17" s="73">
+        <v>1.3844891274045164</v>
+      </c>
+      <c r="E17" s="72">
         <f>'South Africa Workbook'!J27</f>
-        <v>1.3844891274045164</v>
-      </c>
-      <c r="F17" s="73">
+        <v>1.5981624695740144</v>
+      </c>
+      <c r="F17" s="72">
         <f>'South Africa Workbook'!K27</f>
-        <v>1.4396400005068859</v>
-      </c>
-      <c r="G17" s="73">
+        <v>1.4384251849680523</v>
+      </c>
+      <c r="G17" s="72">
         <f>'South Africa Workbook'!L27</f>
-        <v>1.437609331156372</v>
-      </c>
-      <c r="H17" s="73" t="s">
+        <v>1.4374098991624733</v>
+      </c>
+      <c r="H17" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="71">
+      <c r="J17" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="70">
         <f>'South Africa Workbook'!A28</f>
         <v>2007</v>
       </c>
@@ -6735,35 +6838,38 @@
         <f>'South Africa Workbook'!G28</f>
         <v>16</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="72">
         <f>'South Africa Workbook'!H28</f>
         <v>1.6267710112718181</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="72">
         <f>'South Africa Workbook'!I28</f>
-        <v>1.6965748742426201</v>
-      </c>
-      <c r="E18" s="73">
+        <v>1.4726303317535545</v>
+      </c>
+      <c r="E18" s="72">
         <f>'South Africa Workbook'!J28</f>
-        <v>1.4726303317535545</v>
-      </c>
-      <c r="F18" s="73">
+        <v>1.6965749186042138</v>
+      </c>
+      <c r="F18" s="72">
         <f>'South Africa Workbook'!K28</f>
-        <v>1.4707624486727449</v>
-      </c>
-      <c r="G18" s="73">
+        <v>1.4686791275267892</v>
+      </c>
+      <c r="G18" s="72">
         <f>'South Africa Workbook'!L28</f>
-        <v>1.4681914434380348</v>
-      </c>
-      <c r="H18" s="73" t="s">
+        <v>1.4678514497746957</v>
+      </c>
+      <c r="H18" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="71">
+      <c r="J18" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="70">
         <f>'South Africa Workbook'!A29</f>
         <v>2008</v>
       </c>
@@ -6771,35 +6877,38 @@
         <f>'South Africa Workbook'!G29</f>
         <v>17</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <f>'South Africa Workbook'!H29</f>
         <v>1.6866174497437685</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="72">
         <f>'South Africa Workbook'!I29</f>
-        <v>1.7562529911543718</v>
-      </c>
-      <c r="E19" s="73">
+        <v>1.576303317535545</v>
+      </c>
+      <c r="E19" s="72">
         <f>'South Africa Workbook'!J29</f>
-        <v>1.576303317535545</v>
-      </c>
-      <c r="F19" s="73">
+        <v>1.7562529512365346</v>
+      </c>
+      <c r="F19" s="72">
         <f>'South Africa Workbook'!K29</f>
-        <v>1.5388765379462122</v>
-      </c>
-      <c r="G19" s="73">
+        <v>1.5369459119356834</v>
+      </c>
+      <c r="G19" s="72">
         <f>'South Africa Workbook'!L29</f>
-        <v>1.5370025517024912</v>
-      </c>
-      <c r="H19" s="73" t="s">
+        <v>1.5366886035050733</v>
+      </c>
+      <c r="H19" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="71">
+      <c r="J19" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="70">
         <f>'South Africa Workbook'!A30</f>
         <v>2009</v>
       </c>
@@ -6807,35 +6916,38 @@
         <f>'South Africa Workbook'!G30</f>
         <v>18</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <f>'South Africa Workbook'!H30</f>
         <v>1.6613193997032798</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <f>'South Africa Workbook'!I30</f>
-        <v>1.7171889548231813</v>
-      </c>
-      <c r="E20" s="73">
+        <v>1.6803038751045443</v>
+      </c>
+      <c r="E20" s="72">
         <f>'South Africa Workbook'!J30</f>
-        <v>1.6803038751045443</v>
-      </c>
-      <c r="F20" s="73">
+        <v>1.7140554190780692</v>
+      </c>
+      <c r="F20" s="72">
         <f>'South Africa Workbook'!K30</f>
-        <v>1.5140189092510079</v>
-      </c>
-      <c r="G20" s="73">
+        <v>1.5126247791683525</v>
+      </c>
+      <c r="G20" s="72">
         <f>'South Africa Workbook'!L30</f>
-        <v>1.5122261540654287</v>
-      </c>
-      <c r="H20" s="73" t="s">
+        <v>1.5119984749397057</v>
+      </c>
+      <c r="H20" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="71">
+      <c r="J20" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="70">
         <f>'South Africa Workbook'!A31</f>
         <v>2010</v>
       </c>
@@ -6843,35 +6955,38 @@
         <f>'South Africa Workbook'!G31</f>
         <v>19</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <f>'South Africa Workbook'!H31</f>
         <v>1.7094979992079582</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="72">
         <f>'South Africa Workbook'!I31</f>
-        <v>1.6556513331525751</v>
-      </c>
-      <c r="E21" s="73">
+        <v>1.7923264566490102</v>
+      </c>
+      <c r="E21" s="72">
         <f>'South Africa Workbook'!J31</f>
-        <v>1.7923264566490102</v>
-      </c>
-      <c r="F21" s="73">
+        <v>1.655651326002332</v>
+      </c>
+      <c r="F21" s="72">
         <f>'South Africa Workbook'!K31</f>
-        <v>1.5140135069028198</v>
-      </c>
-      <c r="G21" s="73">
+        <v>1.5133785482256334</v>
+      </c>
+      <c r="G21" s="72">
         <f>'South Africa Workbook'!L31</f>
-        <v>1.5124721030136099</v>
-      </c>
-      <c r="H21" s="73" t="s">
+        <v>1.5123668013800988</v>
+      </c>
+      <c r="H21" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="71">
+      <c r="J21" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="70">
         <f>'South Africa Workbook'!A32</f>
         <v>2011</v>
       </c>
@@ -6879,31 +6994,34 @@
         <f>'South Africa Workbook'!G32</f>
         <v>20</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <f>'South Africa Workbook'!H32</f>
         <v>1.7624879568278136</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="72">
         <f>'South Africa Workbook'!I32</f>
-        <v>1.6753721769416801</v>
-      </c>
-      <c r="E22" s="73">
+        <v>1.9066211318650683</v>
+      </c>
+      <c r="E22" s="72">
         <f>'South Africa Workbook'!J32</f>
-        <v>1.9066211318650683</v>
-      </c>
-      <c r="F22" s="73">
+        <v>1.6753721408566637</v>
+      </c>
+      <c r="F22" s="72">
         <f>'South Africa Workbook'!K32</f>
-        <v>1.5040369230546942</v>
-      </c>
-      <c r="G22" s="73">
+        <v>1.5052918416080747</v>
+      </c>
+      <c r="G22" s="72">
         <f>'South Africa Workbook'!L32</f>
-        <v>1.5035097323501212</v>
-      </c>
-      <c r="H22" s="73" t="s">
+        <v>1.50370993668744</v>
+      </c>
+      <c r="H22" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="70" t="s">
         <v>113</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6920,48 +7038,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="AF23" workbookViewId="0">
-      <selection activeCell="AO32" sqref="AO32:AO52"/>
+    <sheetView topLeftCell="AG23" workbookViewId="0">
+      <selection activeCell="AO30" sqref="AO30:AO31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="69" customWidth="1"/>
-    <col min="11" max="11" width="23" style="69" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="30.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="69" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" style="69" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="68" customWidth="1"/>
+    <col min="11" max="11" width="23" style="68" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="30.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" style="68" customWidth="1"/>
+    <col min="18" max="18" width="25.33203125" style="68" customWidth="1"/>
+    <col min="19" max="19" width="21.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.83203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="2" customWidth="1"/>
     <col min="25" max="25" width="13" style="2" customWidth="1"/>
-    <col min="26" max="27" width="13" style="69" customWidth="1"/>
+    <col min="26" max="27" width="13" style="68" customWidth="1"/>
     <col min="28" max="28" width="14" style="2" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="14.83203125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
     <col min="32" max="32" width="20" style="2" customWidth="1"/>
-    <col min="33" max="33" width="18.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="18.5" style="2" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="17.5" style="2" customWidth="1"/>
     <col min="36" max="36" width="18" style="2" customWidth="1"/>
-    <col min="37" max="38" width="18" style="69" customWidth="1"/>
-    <col min="39" max="40" width="21.42578125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" style="2" customWidth="1"/>
-    <col min="42" max="16384" width="8.85546875" style="2"/>
+    <col min="37" max="38" width="18" style="68" customWidth="1"/>
+    <col min="39" max="40" width="21.5" style="2" customWidth="1"/>
+    <col min="41" max="41" width="17.5" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6999,8 +7117,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="69" customFormat="1">
-      <c r="A8" s="99" t="s">
+    <row r="8" spans="1:7" s="68" customFormat="1">
+      <c r="A8" s="97" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7032,7 +7150,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>51</v>
       </c>
@@ -7043,11 +7161,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="79">
         <v>1.0880000000000001</v>
       </c>
       <c r="C16" s="27">
@@ -7056,7 +7174,7 @@
       <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="81" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="57">
@@ -7066,7 +7184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="18">
+    <row r="17" spans="1:41" ht="16">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -7079,7 +7197,7 @@
       <c r="D17" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="82" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="54">
@@ -7102,7 +7220,7 @@
       <c r="D18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="82" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="54">
@@ -7113,7 +7231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="18">
+    <row r="19" spans="1:41" ht="16">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -7126,7 +7244,7 @@
       <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="82" t="s">
         <v>78</v>
       </c>
       <c r="F19" s="54">
@@ -7134,7 +7252,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:41" ht="18.75">
+    <row r="20" spans="1:41" ht="17">
       <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
@@ -7147,7 +7265,7 @@
       <c r="D20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="82" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="54">
@@ -7155,8 +7273,8 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:41" ht="18.75">
-      <c r="A21" s="76" t="s">
+    <row r="21" spans="1:41" ht="17">
+      <c r="A21" s="74" t="s">
         <v>115</v>
       </c>
       <c r="B21" s="33">
@@ -7168,7 +7286,7 @@
       <c r="D21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="82" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="54">
@@ -7176,11 +7294,11 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:41" ht="18.75" thickBot="1">
-      <c r="A22" s="77" t="s">
+    <row r="22" spans="1:41" ht="17" thickBot="1">
+      <c r="A22" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="80">
         <v>1.07</v>
       </c>
       <c r="C22" s="32">
@@ -7190,7 +7308,7 @@
       <c r="D22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="82" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="54">
@@ -7198,7 +7316,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:41" ht="15.75" thickBot="1">
+    <row r="23" spans="1:41" ht="15" thickBot="1">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="29">
@@ -7208,7 +7326,7 @@
       <c r="D23" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="83" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="55">
@@ -7217,30 +7335,30 @@
       </c>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="1:41" ht="17.25">
+    <row r="24" spans="1:41" ht="16">
       <c r="A24" s="36"/>
       <c r="C24" s="34">
         <v>300</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="76" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:41" s="69" customFormat="1" ht="17.25">
+    <row r="25" spans="1:41" s="68" customFormat="1" ht="16">
       <c r="A25" s="36"/>
       <c r="C25" s="34">
         <v>785.22</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:41" s="69" customFormat="1" ht="18" thickBot="1">
+    <row r="26" spans="1:41" s="68" customFormat="1" ht="17" thickBot="1">
       <c r="A26" s="36"/>
-      <c r="C26" s="79">
+      <c r="C26" s="77">
         <v>880</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="78" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7252,7 +7370,7 @@
       <c r="A28" s="36"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:41" ht="15.75" thickBot="1">
+    <row r="29" spans="1:41" ht="15" thickBot="1">
       <c r="E29" s="22" t="s">
         <v>56</v>
       </c>
@@ -7262,177 +7380,183 @@
       <c r="X29" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="AD29" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="AI29" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="AO29" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="103" t="s">
+      <c r="D30" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="103" t="s">
+      <c r="H30" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="103" t="s">
+      <c r="I30" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="103" t="s">
+      <c r="J30" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="K30" s="103" t="s">
+      <c r="K30" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="L30" s="103" t="s">
+      <c r="L30" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="M30" s="105" t="s">
+      <c r="M30" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="107" t="s">
+      <c r="N30" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="O30" s="109" t="s">
+      <c r="O30" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="103" t="s">
+      <c r="P30" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="103" t="s">
+      <c r="Q30" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="R30" s="103" t="s">
+      <c r="R30" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="103" t="s">
+      <c r="S30" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="T30" s="107" t="s">
+      <c r="T30" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="U30" s="109" t="s">
+      <c r="U30" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="V30" s="103" t="s">
+      <c r="V30" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="W30" s="103" t="s">
+      <c r="W30" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="X30" s="103" t="s">
+      <c r="X30" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="Y30" s="103" t="s">
+      <c r="Y30" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="Z30" s="103" t="s">
+      <c r="Z30" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="AA30" s="103" t="s">
+      <c r="AA30" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="AB30" s="103" t="s">
+      <c r="AB30" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="AC30" s="103" t="s">
+      <c r="AC30" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="AD30" s="105" t="s">
+      <c r="AD30" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AE30" s="107" t="s">
+      <c r="AE30" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="AF30" s="109" t="s">
+      <c r="AF30" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="AG30" s="103" t="s">
+      <c r="AG30" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="AH30" s="103" t="s">
+      <c r="AH30" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="AI30" s="103" t="s">
+      <c r="AI30" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="AJ30" s="103" t="s">
+      <c r="AJ30" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="AK30" s="103" t="s">
+      <c r="AK30" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AL30" s="103" t="s">
+      <c r="AL30" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="AM30" s="103" t="s">
+      <c r="AM30" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="AN30" s="103" t="s">
+      <c r="AN30" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="AO30" s="105" t="s">
+      <c r="AO30" s="103" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="108"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="104"/>
-      <c r="AH31" s="104"/>
-      <c r="AI31" s="104"/>
-      <c r="AJ31" s="104"/>
-      <c r="AK31" s="104"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="106"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="102"/>
+      <c r="AN31" s="102"/>
+      <c r="AO31" s="104"/>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="38">
@@ -7471,7 +7595,7 @@
       <c r="L32" s="41">
         <v>2820</v>
       </c>
-      <c r="M32" s="88">
+      <c r="M32" s="86">
         <v>13295249.960000001</v>
       </c>
       <c r="N32" s="51">
@@ -7533,31 +7657,31 @@
         <v>9941.3611250184003</v>
       </c>
       <c r="AD32" s="44">
-        <f t="shared" ref="AD32:AD52" si="8">SUM(T32:AC32)</f>
-        <v>4500393.0954026589</v>
+        <f>SUM(T32:AB32)</f>
+        <v>4490451.7342776405</v>
       </c>
       <c r="AE32" s="45">
-        <f t="shared" ref="AE32:AE52" si="9">B32*1000*N32*1000*$C$22*$C$18</f>
+        <f t="shared" ref="AE32:AE52" si="8">B32*1000*N32*1000*$C$22*$C$18</f>
         <v>3091676.2916010562</v>
       </c>
       <c r="AF32" s="42">
-        <f t="shared" ref="AF32:AF52" si="10">C32*1000*365*O32*1000*$C$22*$C$18</f>
+        <f t="shared" ref="AF32:AF52" si="9">C32*1000*365*O32*1000*$C$22*$C$18</f>
         <v>876859.30703341239</v>
       </c>
       <c r="AG32" s="42">
-        <f t="shared" ref="AG32:AG52" si="11">D32*1000000000*P32*$C$22*$C$18</f>
+        <f t="shared" ref="AG32:AG52" si="10">D32*1000000000*P32*$C$22*$C$18</f>
         <v>0</v>
       </c>
       <c r="AH32" s="42">
-        <f t="shared" ref="AH32:AH52" si="12">E32*1000000000000000*$C$22*$C$18</f>
+        <f t="shared" ref="AH32:AH52" si="11">E32*1000000000000000*$C$22*$C$18</f>
         <v>21797.453860999998</v>
       </c>
       <c r="AI32" s="42">
-        <f t="shared" ref="AI32:AI52" si="13">F32*1000000000000000*$C$22*$C$18</f>
+        <f t="shared" ref="AI32:AI52" si="12">F32*1000000000000000*$C$22*$C$18</f>
         <v>96811.924795999978</v>
       </c>
       <c r="AJ32" s="42">
-        <f t="shared" ref="AJ32:AJ52" si="14">G32*$C$24*S32*(1/1000)*$C$18</f>
+        <f t="shared" ref="AJ32:AJ52" si="13">G32*$C$24*S32*(1/1000)*$C$18</f>
         <v>56071.199999999997</v>
       </c>
       <c r="AK32" s="42">
@@ -7569,16 +7693,16 @@
         <v>0</v>
       </c>
       <c r="AM32" s="42">
-        <f t="shared" ref="AM32:AM52" si="15">((H32*$F$16*365*$F$18)+(I32*$F$17*365*$F$18))</f>
+        <f t="shared" ref="AM32:AM52" si="14">((H32*$F$16*365*$F$18)+(I32*$F$17*365*$F$18))</f>
         <v>6866.5847796000007</v>
       </c>
       <c r="AN32" s="42">
-        <f t="shared" ref="AN32:AN52" si="16">L32*$F$18*365*M32</f>
+        <f t="shared" ref="AN32:AN52" si="15">L32*$F$18*365*M32</f>
         <v>57257.206479536362</v>
       </c>
       <c r="AO32" s="44">
-        <f>SUM(AE32:AN32)</f>
-        <v>4207339.9685506048</v>
+        <f>SUM(AE32:AM32)</f>
+        <v>4150082.7620710689</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -7618,7 +7742,7 @@
       <c r="L33" s="41">
         <v>2820</v>
       </c>
-      <c r="M33" s="88">
+      <c r="M33" s="86">
         <v>13575573.43</v>
       </c>
       <c r="N33" s="51">
@@ -7664,11 +7788,11 @@
         <v>66596.039999999994</v>
       </c>
       <c r="Z33" s="42">
-        <f t="shared" ref="Z33:Z52" si="17">AK33*$B$21</f>
+        <f t="shared" ref="Z33:Z52" si="16">AK33*$B$21</f>
         <v>0</v>
       </c>
       <c r="AA33" s="42">
-        <f t="shared" ref="AA33:AA52" si="18">AL33*$B$22</f>
+        <f t="shared" ref="AA33:AA52" si="17">AL33*$B$22</f>
         <v>0</v>
       </c>
       <c r="AB33" s="42">
@@ -7680,31 +7804,31 @@
         <v>10150.969583337921</v>
       </c>
       <c r="AD33" s="44">
+        <f t="shared" ref="AD33:AD52" si="18">SUM(T33:AB33)</f>
+        <v>4594759.1527198628</v>
+      </c>
+      <c r="AE33" s="45">
         <f t="shared" si="8"/>
-        <v>4604910.1223032009</v>
-      </c>
-      <c r="AE33" s="45">
+        <v>3175618.917567641</v>
+      </c>
+      <c r="AF33" s="42">
         <f t="shared" si="9"/>
-        <v>3175618.917567641</v>
-      </c>
-      <c r="AF33" s="42">
+        <v>896713.10066287266</v>
+      </c>
+      <c r="AG33" s="42">
         <f t="shared" si="10"/>
-        <v>896713.10066287266</v>
-      </c>
-      <c r="AG33" s="42">
+        <v>1557.5472996794997</v>
+      </c>
+      <c r="AH33" s="42">
         <f t="shared" si="11"/>
-        <v>1557.5472996794997</v>
-      </c>
-      <c r="AH33" s="42">
+        <v>8208.334512999998</v>
+      </c>
+      <c r="AI33" s="42">
         <f t="shared" si="12"/>
-        <v>8208.334512999998</v>
-      </c>
-      <c r="AI33" s="42">
+        <v>98341.755778499981</v>
+      </c>
+      <c r="AJ33" s="42">
         <f t="shared" si="13"/>
-        <v>98341.755778499981</v>
-      </c>
-      <c r="AJ33" s="42">
-        <f t="shared" si="14"/>
         <v>57909.599999999999</v>
       </c>
       <c r="AK33" s="42">
@@ -7716,16 +7840,16 @@
         <v>0</v>
       </c>
       <c r="AM33" s="42">
+        <f t="shared" si="14"/>
+        <v>6866.5847796000007</v>
+      </c>
+      <c r="AN33" s="42">
         <f t="shared" si="15"/>
-        <v>6866.5847796000007</v>
-      </c>
-      <c r="AN33" s="42">
-        <f t="shared" si="16"/>
         <v>58464.44506859182</v>
       </c>
       <c r="AO33" s="44">
-        <f t="shared" ref="AO33:AO52" si="21">SUM(AE33:AN33)</f>
-        <v>4303680.2856698846</v>
+        <f t="shared" ref="AO33:AO52" si="21">SUM(AE33:AM33)</f>
+        <v>4245215.8406012924</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -7765,7 +7889,7 @@
       <c r="L34" s="41">
         <v>2815</v>
       </c>
-      <c r="M34" s="88">
+      <c r="M34" s="86">
         <v>13865304.52</v>
       </c>
       <c r="N34" s="51">
@@ -7811,11 +7935,11 @@
         <v>68710.2</v>
       </c>
       <c r="Z34" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB34" s="42">
@@ -7827,31 +7951,31 @@
         <v>10349.230183237309</v>
       </c>
       <c r="AD34" s="44">
+        <f t="shared" si="18"/>
+        <v>4592851.1101301583</v>
+      </c>
+      <c r="AE34" s="45">
         <f t="shared" si="8"/>
-        <v>4603200.3403133955</v>
-      </c>
-      <c r="AE34" s="45">
+        <v>3152545.2838290525</v>
+      </c>
+      <c r="AF34" s="42">
         <f t="shared" si="9"/>
-        <v>3152545.2838290525</v>
-      </c>
-      <c r="AF34" s="42">
+        <v>875990.5055923356</v>
+      </c>
+      <c r="AG34" s="42">
         <f t="shared" si="10"/>
-        <v>875990.5055923356</v>
-      </c>
-      <c r="AG34" s="42">
+        <v>70218.871772146638</v>
+      </c>
+      <c r="AH34" s="42">
         <f t="shared" si="11"/>
-        <v>70218.871772146638</v>
-      </c>
-      <c r="AH34" s="42">
+        <v>1593.1343334999997</v>
+      </c>
+      <c r="AI34" s="42">
         <f t="shared" si="12"/>
-        <v>1593.1343334999997</v>
-      </c>
-      <c r="AI34" s="42">
+        <v>76808.065879999995</v>
+      </c>
+      <c r="AJ34" s="42">
         <f t="shared" si="13"/>
-        <v>76808.065879999995</v>
-      </c>
-      <c r="AJ34" s="42">
-        <f t="shared" si="14"/>
         <v>59748</v>
       </c>
       <c r="AK34" s="42">
@@ -7863,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="AM34" s="42">
+        <f t="shared" si="14"/>
+        <v>7012.5049176000011</v>
+      </c>
+      <c r="AN34" s="42">
         <f t="shared" si="15"/>
-        <v>7012.5049176000011</v>
-      </c>
-      <c r="AN34" s="42">
-        <f t="shared" si="16"/>
         <v>59606.32573889842</v>
       </c>
       <c r="AO34" s="44">
         <f t="shared" si="21"/>
-        <v>4303522.6920635337</v>
+        <v>4243916.3663246352</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -7912,7 +8036,7 @@
       <c r="L35" s="41">
         <v>2815</v>
       </c>
-      <c r="M35" s="88">
+      <c r="M35" s="86">
         <v>15313289.199999999</v>
       </c>
       <c r="N35" s="51">
@@ -7958,11 +8082,11 @@
         <v>70824.359999999986</v>
       </c>
       <c r="Z35" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB35" s="42">
@@ -7974,31 +8098,31 @@
         <v>11430.023377033041</v>
       </c>
       <c r="AD35" s="44">
+        <f t="shared" si="18"/>
+        <v>4984816.060104914</v>
+      </c>
+      <c r="AE35" s="45">
         <f t="shared" si="8"/>
-        <v>4996246.083481947</v>
-      </c>
-      <c r="AE35" s="45">
+        <v>3456168.0236741086</v>
+      </c>
+      <c r="AF35" s="42">
         <f t="shared" si="9"/>
-        <v>3456168.0236741086</v>
-      </c>
-      <c r="AF35" s="42">
+        <v>892219.60584462574</v>
+      </c>
+      <c r="AG35" s="42">
         <f t="shared" si="10"/>
-        <v>892219.60584462574</v>
-      </c>
-      <c r="AG35" s="42">
+        <v>76065.749685056988</v>
+      </c>
+      <c r="AH35" s="42">
         <f t="shared" si="11"/>
-        <v>76065.749685056988</v>
-      </c>
-      <c r="AH35" s="42">
+        <v>11690.018817999997</v>
+      </c>
+      <c r="AI35" s="42">
         <f t="shared" si="12"/>
-        <v>11690.018817999997</v>
-      </c>
-      <c r="AI35" s="42">
+        <v>102667.48476349998</v>
+      </c>
+      <c r="AJ35" s="42">
         <f t="shared" si="13"/>
-        <v>102667.48476349998</v>
-      </c>
-      <c r="AJ35" s="42">
-        <f t="shared" si="14"/>
         <v>61586.399999999994</v>
       </c>
       <c r="AK35" s="42">
@@ -8010,16 +8134,16 @@
         <v>0</v>
       </c>
       <c r="AM35" s="42">
+        <f t="shared" si="14"/>
+        <v>7158.4250556000006</v>
+      </c>
+      <c r="AN35" s="42">
         <f t="shared" si="15"/>
-        <v>7158.4250556000006</v>
-      </c>
-      <c r="AN35" s="42">
-        <f t="shared" si="16"/>
         <v>65831.1472981017</v>
       </c>
       <c r="AO35" s="44">
         <f t="shared" si="21"/>
-        <v>4673386.8551389938</v>
+        <v>4607555.7078408925</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -8059,7 +8183,7 @@
       <c r="L36" s="41">
         <v>2810</v>
       </c>
-      <c r="M36" s="88">
+      <c r="M36" s="86">
         <v>16430400</v>
       </c>
       <c r="N36" s="51">
@@ -8105,11 +8229,11 @@
         <v>72938.51999999999</v>
       </c>
       <c r="Z36" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB36" s="42">
@@ -8121,31 +8245,31 @@
         <v>12242.065289915079</v>
       </c>
       <c r="AD36" s="44">
+        <f t="shared" si="18"/>
+        <v>5059302.2628542436</v>
+      </c>
+      <c r="AE36" s="45">
         <f t="shared" si="8"/>
-        <v>5071544.3281441592</v>
-      </c>
-      <c r="AE36" s="45">
+        <v>3487353.9464951186</v>
+      </c>
+      <c r="AF36" s="42">
         <f t="shared" si="9"/>
-        <v>3487353.9464951186</v>
-      </c>
-      <c r="AF36" s="42">
+        <v>917301.45751270524</v>
+      </c>
+      <c r="AG36" s="42">
         <f t="shared" si="10"/>
-        <v>917301.45751270524</v>
-      </c>
-      <c r="AG36" s="42">
+        <v>76463.421336038984</v>
+      </c>
+      <c r="AH36" s="42">
         <f t="shared" si="11"/>
-        <v>76463.421336038984</v>
-      </c>
-      <c r="AH36" s="42">
+        <v>5760.6049409999987</v>
+      </c>
+      <c r="AI36" s="42">
         <f t="shared" si="12"/>
-        <v>5760.6049409999987</v>
-      </c>
-      <c r="AI36" s="42">
+        <v>119653.88394849998</v>
+      </c>
+      <c r="AJ36" s="42">
         <f t="shared" si="13"/>
-        <v>119653.88394849998</v>
-      </c>
-      <c r="AJ36" s="42">
-        <f t="shared" si="14"/>
         <v>63424.799999999996</v>
       </c>
       <c r="AK36" s="42">
@@ -8157,16 +8281,16 @@
         <v>0</v>
       </c>
       <c r="AM36" s="42">
+        <f t="shared" si="14"/>
+        <v>7304.345193600001</v>
+      </c>
+      <c r="AN36" s="42">
         <f t="shared" si="15"/>
-        <v>7304.345193600001</v>
-      </c>
-      <c r="AN36" s="42">
-        <f t="shared" si="16"/>
         <v>70508.09755584001</v>
       </c>
       <c r="AO36" s="44">
         <f t="shared" si="21"/>
-        <v>4747770.5569828041</v>
+        <v>4677262.4594269637</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -8206,7 +8330,7 @@
       <c r="L37" s="41">
         <v>2810</v>
       </c>
-      <c r="M37" s="88">
+      <c r="M37" s="86">
         <v>16000098.800000001</v>
       </c>
       <c r="N37" s="51">
@@ -8252,11 +8376,11 @@
         <v>75052.679999999993</v>
       </c>
       <c r="Z37" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB37" s="42">
@@ -8268,31 +8392,31 @@
         <v>11921.453778038996</v>
       </c>
       <c r="AD37" s="44">
+        <f t="shared" si="18"/>
+        <v>5127537.4200238613</v>
+      </c>
+      <c r="AE37" s="45">
         <f t="shared" si="8"/>
-        <v>5139458.8738019001</v>
-      </c>
-      <c r="AE37" s="45">
+        <v>3525116.849102417</v>
+      </c>
+      <c r="AF37" s="42">
         <f t="shared" si="9"/>
-        <v>3525116.849102417</v>
-      </c>
-      <c r="AF37" s="42">
+        <v>931792.58454046154</v>
+      </c>
+      <c r="AG37" s="42">
         <f t="shared" si="10"/>
-        <v>931792.58454046154</v>
-      </c>
-      <c r="AG37" s="42">
+        <v>71812.706609978253</v>
+      </c>
+      <c r="AH37" s="42">
         <f t="shared" si="11"/>
-        <v>71812.706609978253</v>
-      </c>
-      <c r="AH37" s="42">
+        <v>15013.444745499997</v>
+      </c>
+      <c r="AI37" s="42">
         <f t="shared" si="12"/>
-        <v>15013.444745499997</v>
-      </c>
-      <c r="AI37" s="42">
+        <v>124665.39923599998</v>
+      </c>
+      <c r="AJ37" s="42">
         <f t="shared" si="13"/>
-        <v>124665.39923599998</v>
-      </c>
-      <c r="AJ37" s="42">
-        <f t="shared" si="14"/>
         <v>65263.199999999997</v>
       </c>
       <c r="AK37" s="42">
@@ -8304,16 +8428,16 @@
         <v>0</v>
       </c>
       <c r="AM37" s="42">
+        <f t="shared" si="14"/>
+        <v>7450.2653316000005</v>
+      </c>
+      <c r="AN37" s="42">
         <f t="shared" si="15"/>
-        <v>7450.2653316000005</v>
-      </c>
-      <c r="AN37" s="42">
-        <f t="shared" si="16"/>
         <v>68661.537582376492</v>
       </c>
       <c r="AO37" s="44">
         <f t="shared" si="21"/>
-        <v>4809775.9871483324</v>
+        <v>4741114.4495659564</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -8353,7 +8477,7 @@
       <c r="L38" s="41">
         <v>2810</v>
       </c>
-      <c r="M38" s="88">
+      <c r="M38" s="86">
         <v>16370425.199999999</v>
       </c>
       <c r="N38" s="51">
@@ -8399,11 +8523,11 @@
         <v>77166.839999999982</v>
       </c>
       <c r="Z38" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB38" s="42">
@@ -8415,31 +8539,31 @@
         <v>12197.378890475649</v>
       </c>
       <c r="AD38" s="44">
+        <f t="shared" si="18"/>
+        <v>5532262.1046198383</v>
+      </c>
+      <c r="AE38" s="45">
         <f t="shared" si="8"/>
-        <v>5544459.4835103136</v>
-      </c>
-      <c r="AE38" s="45">
+        <v>3858141.7222044049</v>
+      </c>
+      <c r="AF38" s="42">
         <f t="shared" si="9"/>
-        <v>3858141.7222044049</v>
-      </c>
-      <c r="AF38" s="42">
+        <v>955692.12904949032</v>
+      </c>
+      <c r="AG38" s="42">
         <f t="shared" si="10"/>
-        <v>955692.12904949032</v>
-      </c>
-      <c r="AG38" s="42">
+        <v>68268.347556253677</v>
+      </c>
+      <c r="AH38" s="42">
         <f t="shared" si="11"/>
-        <v>68268.347556253677</v>
-      </c>
-      <c r="AH38" s="42">
+        <v>24044.722821499996</v>
+      </c>
+      <c r="AI38" s="42">
         <f t="shared" si="12"/>
-        <v>24044.722821499996</v>
-      </c>
-      <c r="AI38" s="42">
+        <v>133897.13792349998</v>
+      </c>
+      <c r="AJ38" s="42">
         <f t="shared" si="13"/>
-        <v>133897.13792349998</v>
-      </c>
-      <c r="AJ38" s="42">
-        <f t="shared" si="14"/>
         <v>67101.599999999991</v>
       </c>
       <c r="AK38" s="42">
@@ -8451,16 +8575,16 @@
         <v>0</v>
       </c>
       <c r="AM38" s="42">
+        <f t="shared" si="14"/>
+        <v>7596.1854696000009</v>
+      </c>
+      <c r="AN38" s="42">
         <f t="shared" si="15"/>
-        <v>7596.1854696000009</v>
-      </c>
-      <c r="AN38" s="42">
-        <f t="shared" si="16"/>
         <v>70250.726521093922</v>
       </c>
       <c r="AO38" s="44">
         <f t="shared" si="21"/>
-        <v>5184992.571545843</v>
+        <v>5114741.8450247487</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -8500,7 +8624,7 @@
       <c r="L39" s="41">
         <v>2855</v>
       </c>
-      <c r="M39" s="88">
+      <c r="M39" s="86">
         <v>16340876.369999999</v>
       </c>
       <c r="N39" s="51">
@@ -8546,11 +8670,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z39" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="42">
@@ -8562,31 +8686,31 @@
         <v>12370.341577417033</v>
       </c>
       <c r="AD39" s="44">
+        <f t="shared" si="18"/>
+        <v>5275485.7694955673</v>
+      </c>
+      <c r="AE39" s="45">
         <f t="shared" si="8"/>
-        <v>5287856.1110729845</v>
-      </c>
-      <c r="AE39" s="45">
+        <v>3614818.5401057433</v>
+      </c>
+      <c r="AF39" s="42">
         <f t="shared" si="9"/>
-        <v>3614818.5401057433</v>
-      </c>
-      <c r="AF39" s="42">
+        <v>982004.32346192608</v>
+      </c>
+      <c r="AG39" s="42">
         <f t="shared" si="10"/>
-        <v>982004.32346192608</v>
-      </c>
-      <c r="AG39" s="42">
+        <v>56565.202260895901</v>
+      </c>
+      <c r="AH39" s="42">
         <f t="shared" si="11"/>
-        <v>56565.202260895901</v>
-      </c>
-      <c r="AH39" s="42">
+        <v>19518.533224999999</v>
+      </c>
+      <c r="AI39" s="42">
         <f t="shared" si="12"/>
-        <v>19518.533224999999</v>
-      </c>
-      <c r="AI39" s="42">
+        <v>144004.57296649998</v>
+      </c>
+      <c r="AJ39" s="42">
         <f t="shared" si="13"/>
-        <v>144004.57296649998</v>
-      </c>
-      <c r="AJ39" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK39" s="42">
@@ -8598,16 +8722,16 @@
         <v>0</v>
       </c>
       <c r="AM39" s="42">
+        <f t="shared" si="14"/>
+        <v>7742.1056076000013</v>
+      </c>
+      <c r="AN39" s="42">
         <f t="shared" si="15"/>
-        <v>7742.1056076000013</v>
-      </c>
-      <c r="AN39" s="42">
-        <f t="shared" si="16"/>
         <v>71246.904021832277</v>
       </c>
       <c r="AO39" s="44">
         <f t="shared" si="21"/>
-        <v>4951052.1816494968</v>
+        <v>4879805.2776276646</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -8647,7 +8771,7 @@
       <c r="L40" s="41">
         <v>2855</v>
       </c>
-      <c r="M40" s="88">
+      <c r="M40" s="86">
         <v>16740159.15</v>
       </c>
       <c r="N40" s="51">
@@ -8693,11 +8817,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z40" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB40" s="42">
@@ -8709,31 +8833,31 @@
         <v>12672.605927427574</v>
       </c>
       <c r="AD40" s="44">
+        <f t="shared" si="18"/>
+        <v>5492674.5263839951</v>
+      </c>
+      <c r="AE40" s="45">
         <f t="shared" si="8"/>
-        <v>5505347.1323114224</v>
-      </c>
-      <c r="AE40" s="45">
+        <v>3800652.6781722964</v>
+      </c>
+      <c r="AF40" s="42">
         <f t="shared" si="9"/>
-        <v>3800652.6781722964</v>
-      </c>
-      <c r="AF40" s="42">
+        <v>1014445.7932048215</v>
+      </c>
+      <c r="AG40" s="42">
         <f t="shared" si="10"/>
-        <v>1014445.7932048215</v>
-      </c>
-      <c r="AG40" s="42">
+        <v>54614.67804500294</v>
+      </c>
+      <c r="AH40" s="42">
         <f t="shared" si="11"/>
-        <v>54614.67804500294</v>
-      </c>
-      <c r="AH40" s="42">
+        <v>9854.2216389999994</v>
+      </c>
+      <c r="AI40" s="42">
         <f t="shared" si="12"/>
-        <v>9854.2216389999994</v>
-      </c>
-      <c r="AI40" s="42">
+        <v>135912.29459699997</v>
+      </c>
+      <c r="AJ40" s="42">
         <f t="shared" si="13"/>
-        <v>135912.29459699997</v>
-      </c>
-      <c r="AJ40" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK40" s="42">
@@ -8745,16 +8869,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="42">
+        <f t="shared" si="14"/>
+        <v>7683.7375524000008</v>
+      </c>
+      <c r="AN40" s="42">
         <f t="shared" si="15"/>
-        <v>7683.7375524000008</v>
-      </c>
-      <c r="AN40" s="42">
-        <f t="shared" si="16"/>
         <v>72987.79363265248</v>
       </c>
       <c r="AO40" s="44">
         <f t="shared" si="21"/>
-        <v>5151303.1968431724</v>
+        <v>5078315.4032105198</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -8794,7 +8918,7 @@
       <c r="L41" s="42">
         <v>2900</v>
       </c>
-      <c r="M41" s="88">
+      <c r="M41" s="86">
         <v>16720000</v>
       </c>
       <c r="N41" s="51">
@@ -8840,11 +8964,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z41" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB41" s="42">
@@ -8856,31 +8980,31 @@
         <v>12856.847895208795</v>
       </c>
       <c r="AD41" s="44">
+        <f t="shared" si="18"/>
+        <v>5639000.7052226886</v>
+      </c>
+      <c r="AE41" s="45">
         <f t="shared" si="8"/>
-        <v>5651857.5531178974</v>
-      </c>
-      <c r="AE41" s="45">
+        <v>3933370.4242292847</v>
+      </c>
+      <c r="AF41" s="42">
         <f t="shared" si="9"/>
-        <v>3933370.4242292847</v>
-      </c>
-      <c r="AF41" s="42">
+        <v>997584.93242016726</v>
+      </c>
+      <c r="AG41" s="42">
         <f t="shared" si="10"/>
-        <v>997584.93242016726</v>
-      </c>
-      <c r="AG41" s="42">
+        <v>64367.299124467754</v>
+      </c>
+      <c r="AH41" s="42">
         <f t="shared" si="11"/>
-        <v>64367.299124467754</v>
-      </c>
-      <c r="AH41" s="42">
+        <v>17756.5899555</v>
+      </c>
+      <c r="AI41" s="42">
         <f t="shared" si="12"/>
-        <v>17756.5899555</v>
-      </c>
-      <c r="AI41" s="42">
+        <v>137748.09177599999</v>
+      </c>
+      <c r="AJ41" s="42">
         <f t="shared" si="13"/>
-        <v>137748.09177599999</v>
-      </c>
-      <c r="AJ41" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK41" s="42">
@@ -8892,16 +9016,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="42">
+        <f t="shared" si="14"/>
+        <v>8033.9458836000013</v>
+      </c>
+      <c r="AN41" s="42">
         <f t="shared" si="15"/>
-        <v>8033.9458836000013</v>
-      </c>
-      <c r="AN41" s="42">
-        <f t="shared" si="16"/>
         <v>74048.934080000021</v>
       </c>
       <c r="AO41" s="44">
         <f t="shared" si="21"/>
-        <v>5288062.2174690207</v>
+        <v>5214013.2833890207</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -8941,7 +9065,7 @@
       <c r="L42" s="42">
         <v>2900</v>
       </c>
-      <c r="M42" s="88">
+      <c r="M42" s="86">
         <v>16616603.060000001</v>
       </c>
       <c r="N42" s="51">
@@ -8987,11 +9111,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z42" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB42" s="42">
@@ -9003,31 +9127,31 @@
         <v>12777.340794107717</v>
       </c>
       <c r="AD42" s="44">
+        <f t="shared" si="18"/>
+        <v>5711477.0863111811</v>
+      </c>
+      <c r="AE42" s="45">
         <f t="shared" si="8"/>
-        <v>5724254.427105289</v>
-      </c>
-      <c r="AE42" s="45">
+        <v>3997412.92556166</v>
+      </c>
+      <c r="AF42" s="42">
         <f t="shared" si="9"/>
-        <v>3997412.92556166</v>
-      </c>
-      <c r="AF42" s="42">
+        <v>998271.17685223639</v>
+      </c>
+      <c r="AG42" s="42">
         <f t="shared" si="10"/>
-        <v>998271.17685223639</v>
-      </c>
-      <c r="AG42" s="42">
+        <v>81922.017067504421</v>
+      </c>
+      <c r="AH42" s="42">
         <f t="shared" si="11"/>
-        <v>81922.017067504421</v>
-      </c>
-      <c r="AH42" s="42">
+        <v>25817.216649499995</v>
+      </c>
+      <c r="AI42" s="42">
         <f t="shared" si="12"/>
-        <v>25817.216649499995</v>
-      </c>
-      <c r="AI42" s="42">
+        <v>113492.35778449998</v>
+      </c>
+      <c r="AJ42" s="42">
         <f t="shared" si="13"/>
-        <v>113492.35778449998</v>
-      </c>
-      <c r="AJ42" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK42" s="42">
@@ -9039,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="AM42" s="42">
+        <f t="shared" si="14"/>
+        <v>8033.9458836000013</v>
+      </c>
+      <c r="AN42" s="42">
         <f t="shared" si="15"/>
-        <v>8033.9458836000013</v>
-      </c>
-      <c r="AN42" s="42">
-        <f t="shared" si="16"/>
         <v>73591.013434417851</v>
       </c>
       <c r="AO42" s="44">
         <f t="shared" si="21"/>
-        <v>5353692.6532334182</v>
+        <v>5280101.6397990007</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -9088,7 +9212,7 @@
       <c r="L43" s="42">
         <v>2900</v>
       </c>
-      <c r="M43" s="88">
+      <c r="M43" s="86">
         <v>16847318.039999999</v>
       </c>
       <c r="N43" s="51">
@@ -9134,11 +9258,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z43" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB43" s="42">
@@ -9150,31 +9274,31 @@
         <v>12954.7491317277</v>
       </c>
       <c r="AD43" s="44">
+        <f t="shared" si="18"/>
+        <v>5586882.3722885838</v>
+      </c>
+      <c r="AE43" s="45">
         <f t="shared" si="8"/>
-        <v>5599837.1214203117</v>
-      </c>
-      <c r="AE43" s="45">
+        <v>3823519.6005896386</v>
+      </c>
+      <c r="AF43" s="42">
         <f t="shared" si="9"/>
-        <v>3823519.6005896386</v>
-      </c>
-      <c r="AF43" s="42">
+        <v>1035743.2467901178</v>
+      </c>
+      <c r="AG43" s="42">
         <f t="shared" si="10"/>
-        <v>1035743.2467901178</v>
-      </c>
-      <c r="AG43" s="42">
+        <v>89724.113931076266</v>
+      </c>
+      <c r="AH43" s="42">
         <f t="shared" si="11"/>
-        <v>89724.113931076266</v>
-      </c>
-      <c r="AH43" s="42">
+        <v>28644.766327499994</v>
+      </c>
+      <c r="AI43" s="42">
         <f t="shared" si="12"/>
-        <v>28644.766327499994</v>
-      </c>
-      <c r="AI43" s="42">
+        <v>126944.31987199998</v>
+      </c>
+      <c r="AJ43" s="42">
         <f t="shared" si="13"/>
-        <v>126944.31987199998</v>
-      </c>
-      <c r="AJ43" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK43" s="42">
@@ -9186,16 +9310,16 @@
         <v>0</v>
       </c>
       <c r="AM43" s="42">
+        <f t="shared" si="14"/>
+        <v>8033.9458836000013</v>
+      </c>
+      <c r="AN43" s="42">
         <f t="shared" si="15"/>
-        <v>8033.9458836000013</v>
-      </c>
-      <c r="AN43" s="42">
-        <f t="shared" si="16"/>
         <v>74612.79563210257</v>
       </c>
       <c r="AO43" s="44">
         <f t="shared" si="21"/>
-        <v>5242374.7890260359</v>
+        <v>5167761.9933939334</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -9235,7 +9359,7 @@
       <c r="L44" s="42">
         <v>2950</v>
       </c>
-      <c r="M44" s="88">
+      <c r="M44" s="86">
         <v>17063102.780000001</v>
       </c>
       <c r="N44" s="51">
@@ -9281,11 +9405,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z44" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB44" s="42">
@@ -9297,31 +9421,31 @@
         <v>13346.895424335593</v>
       </c>
       <c r="AD44" s="44">
+        <f t="shared" si="18"/>
+        <v>5997287.4598798994</v>
+      </c>
+      <c r="AE44" s="45">
         <f t="shared" si="8"/>
-        <v>6010634.3553042347</v>
-      </c>
-      <c r="AE44" s="45">
+        <v>4178716.4300612677</v>
+      </c>
+      <c r="AF44" s="42">
         <f t="shared" si="9"/>
-        <v>4178716.4300612677</v>
-      </c>
-      <c r="AF44" s="42">
+        <v>1067916.2400916044</v>
+      </c>
+      <c r="AG44" s="42">
         <f t="shared" si="10"/>
-        <v>1067916.2400916044</v>
-      </c>
-      <c r="AG44" s="42">
+        <v>88943.904244719088</v>
+      </c>
+      <c r="AH44" s="42">
         <f t="shared" si="11"/>
-        <v>88943.904244719088</v>
-      </c>
-      <c r="AH44" s="42">
+        <v>11763.872727499998</v>
+      </c>
+      <c r="AI44" s="42">
         <f t="shared" si="12"/>
-        <v>11763.872727499998</v>
-      </c>
-      <c r="AI44" s="42">
+        <v>134065.94685949996</v>
+      </c>
+      <c r="AJ44" s="42">
         <f t="shared" si="13"/>
-        <v>134065.94685949996</v>
-      </c>
-      <c r="AJ44" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK44" s="42">
@@ -9333,16 +9457,16 @@
         <v>0</v>
       </c>
       <c r="AM44" s="42">
+        <f t="shared" si="14"/>
+        <v>8033.9458836000013</v>
+      </c>
+      <c r="AN44" s="42">
         <f t="shared" si="15"/>
-        <v>8033.9458836000013</v>
-      </c>
-      <c r="AN44" s="42">
-        <f t="shared" si="16"/>
         <v>76871.359722439171</v>
       </c>
       <c r="AO44" s="44">
         <f t="shared" si="21"/>
-        <v>5621463.6995906308</v>
+        <v>5544592.3398681916</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -9382,7 +9506,7 @@
       <c r="L45" s="42">
         <v>2950</v>
       </c>
-      <c r="M45" s="88">
+      <c r="M45" s="86">
         <v>18199260.690000001</v>
       </c>
       <c r="N45" s="51">
@@ -9428,11 +9552,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z45" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB45" s="42">
@@ -9444,31 +9568,31 @@
         <v>14235.607225806772</v>
       </c>
       <c r="AD45" s="44">
+        <f t="shared" si="18"/>
+        <v>6361223.2714074589</v>
+      </c>
+      <c r="AE45" s="45">
         <f t="shared" si="8"/>
-        <v>6375458.8786332654</v>
-      </c>
-      <c r="AE45" s="45">
+        <v>4468513.2445972515</v>
+      </c>
+      <c r="AF45" s="42">
         <f t="shared" si="9"/>
-        <v>4468513.2445972515</v>
-      </c>
-      <c r="AF45" s="42">
+        <v>1097760.2155132613</v>
+      </c>
+      <c r="AG45" s="42">
         <f t="shared" si="10"/>
-        <v>1097760.2155132613</v>
-      </c>
-      <c r="AG45" s="42">
+        <v>86993.380028826126</v>
+      </c>
+      <c r="AH45" s="42">
         <f t="shared" si="11"/>
-        <v>86993.380028826126</v>
-      </c>
-      <c r="AH45" s="42">
+        <v>13283.153151499997</v>
+      </c>
+      <c r="AI45" s="42">
         <f t="shared" si="12"/>
-        <v>13283.153151499997</v>
-      </c>
-      <c r="AI45" s="42">
+        <v>151189.50330499999</v>
+      </c>
+      <c r="AJ45" s="42">
         <f t="shared" si="13"/>
-        <v>151189.50330499999</v>
-      </c>
-      <c r="AJ45" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK45" s="42">
@@ -9480,16 +9604,16 @@
         <v>0</v>
       </c>
       <c r="AM45" s="42">
+        <f t="shared" si="14"/>
+        <v>8033.9458836000013</v>
+      </c>
+      <c r="AN45" s="42">
         <f t="shared" si="15"/>
-        <v>8033.9458836000013</v>
-      </c>
-      <c r="AN45" s="42">
-        <f t="shared" si="16"/>
         <v>81989.889718254184</v>
       </c>
       <c r="AO45" s="44">
         <f t="shared" si="21"/>
-        <v>5962915.3321976932</v>
+        <v>5880925.4424794391</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -9529,7 +9653,7 @@
       <c r="L46" s="42">
         <v>2950</v>
       </c>
-      <c r="M46" s="88">
+      <c r="M46" s="86">
         <v>18407402.91</v>
       </c>
       <c r="N46" s="51">
@@ -9575,11 +9699,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z46" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB46" s="42">
@@ -9591,31 +9715,31 @@
         <v>14398.417734513621</v>
       </c>
       <c r="AD46" s="44">
+        <f t="shared" si="18"/>
+        <v>6282762.5923509225</v>
+      </c>
+      <c r="AE46" s="45">
         <f t="shared" si="8"/>
-        <v>6297161.0100854365</v>
-      </c>
-      <c r="AE46" s="45">
+        <v>4345546.1372787934</v>
+      </c>
+      <c r="AF46" s="42">
         <f t="shared" si="9"/>
-        <v>4345546.1372787934</v>
-      </c>
-      <c r="AF46" s="42">
+        <v>1169033.6306323751</v>
+      </c>
+      <c r="AG46" s="42">
         <f t="shared" si="10"/>
-        <v>1169033.6306323751</v>
-      </c>
-      <c r="AG46" s="42">
+        <v>83609.863237130994</v>
+      </c>
+      <c r="AH46" s="42">
         <f t="shared" si="11"/>
-        <v>83609.863237130994</v>
-      </c>
-      <c r="AH46" s="42">
+        <v>17271.264264499998</v>
+      </c>
+      <c r="AI46" s="42">
         <f t="shared" si="12"/>
-        <v>17271.264264499998</v>
-      </c>
-      <c r="AI46" s="42">
+        <v>129571.40893849998</v>
+      </c>
+      <c r="AJ46" s="42">
         <f t="shared" si="13"/>
-        <v>129571.40893849998</v>
-      </c>
-      <c r="AJ46" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK46" s="42">
@@ -9627,16 +9751,16 @@
         <v>0</v>
       </c>
       <c r="AM46" s="42">
+        <f t="shared" si="14"/>
+        <v>8033.9458836000013</v>
+      </c>
+      <c r="AN46" s="42">
         <f t="shared" si="15"/>
-        <v>8033.9458836000013</v>
-      </c>
-      <c r="AN46" s="42">
-        <f t="shared" si="16"/>
         <v>82927.595812705025</v>
       </c>
       <c r="AO46" s="44">
         <f t="shared" si="21"/>
-        <v>5891145.8460476054</v>
+        <v>5808218.2502349</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -9676,7 +9800,7 @@
       <c r="L47" s="42">
         <v>3000</v>
       </c>
-      <c r="M47" s="88">
+      <c r="M47" s="86">
         <v>19092378.399999999</v>
       </c>
       <c r="N47" s="51">
@@ -9722,11 +9846,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z47" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB47" s="42">
@@ -9738,31 +9862,31 @@
         <v>15187.333260594569</v>
       </c>
       <c r="AD47" s="44">
+        <f t="shared" si="18"/>
+        <v>6454619.7745619761</v>
+      </c>
+      <c r="AE47" s="45">
         <f t="shared" si="8"/>
-        <v>6469807.1078225709</v>
-      </c>
-      <c r="AE47" s="45">
+        <v>4406912.9342666343</v>
+      </c>
+      <c r="AF47" s="42">
         <f t="shared" si="9"/>
-        <v>4406912.9342666343</v>
-      </c>
-      <c r="AF47" s="42">
+        <v>1199535.9005287557</v>
+      </c>
+      <c r="AG47" s="42">
         <f t="shared" si="10"/>
-        <v>1199535.9005287557</v>
-      </c>
-      <c r="AG47" s="42">
+        <v>159618.82981634096</v>
+      </c>
+      <c r="AH47" s="42">
         <f t="shared" si="11"/>
-        <v>159618.82981634096</v>
-      </c>
-      <c r="AH47" s="42">
+        <v>33381.967093999992</v>
+      </c>
+      <c r="AI47" s="42">
         <f t="shared" si="12"/>
-        <v>33381.967093999992</v>
-      </c>
-      <c r="AI47" s="42">
+        <v>106655.59587649998</v>
+      </c>
+      <c r="AJ47" s="42">
         <f t="shared" si="13"/>
-        <v>106655.59587649998</v>
-      </c>
-      <c r="AJ47" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK47" s="42">
@@ -9774,16 +9898,16 @@
         <v>0</v>
       </c>
       <c r="AM47" s="42">
+        <f t="shared" si="14"/>
+        <v>8326.3370825700003</v>
+      </c>
+      <c r="AN47" s="42">
         <f t="shared" si="15"/>
-        <v>8326.3370825700003</v>
-      </c>
-      <c r="AN47" s="42">
-        <f t="shared" si="16"/>
         <v>87471.349792032008</v>
       </c>
       <c r="AO47" s="44">
         <f t="shared" si="21"/>
-        <v>6057054.9144568341</v>
+        <v>5969583.5646648025</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -9823,7 +9947,7 @@
       <c r="L48" s="42">
         <v>3000</v>
       </c>
-      <c r="M48" s="88">
+      <c r="M48" s="86">
         <v>20268058.440000001</v>
       </c>
       <c r="N48" s="51">
@@ -9869,11 +9993,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z48" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="42">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB48" s="42">
@@ -9885,31 +10009,31 @@
         <v>16122.546475062873</v>
       </c>
       <c r="AD48" s="44">
+        <f t="shared" si="18"/>
+        <v>6591316.0883027315</v>
+      </c>
+      <c r="AE48" s="45">
         <f t="shared" si="8"/>
-        <v>6607438.6347777946</v>
-      </c>
-      <c r="AE48" s="45">
+        <v>4521024.6982270423</v>
+      </c>
+      <c r="AF48" s="42">
         <f t="shared" si="9"/>
-        <v>4521024.6982270423</v>
-      </c>
-      <c r="AF48" s="42">
+        <v>1221771.3660106913</v>
+      </c>
+      <c r="AG48" s="42">
         <f t="shared" si="10"/>
-        <v>1221771.3660106913</v>
-      </c>
-      <c r="AG48" s="42">
+        <v>150877.79865973184</v>
+      </c>
+      <c r="AH48" s="42">
         <f t="shared" si="11"/>
-        <v>150877.79865973184</v>
-      </c>
-      <c r="AH48" s="42">
+        <v>12977.186954999997</v>
+      </c>
+      <c r="AI48" s="42">
         <f t="shared" si="12"/>
-        <v>12977.186954999997</v>
-      </c>
-      <c r="AI48" s="42">
+        <v>124718.15202849999</v>
+      </c>
+      <c r="AJ48" s="42">
         <f t="shared" si="13"/>
-        <v>124718.15202849999</v>
-      </c>
-      <c r="AJ48" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK48" s="42">
@@ -9921,16 +10045,16 @@
         <v>0</v>
       </c>
       <c r="AM48" s="42">
+        <f t="shared" si="14"/>
+        <v>8618.7282815400013</v>
+      </c>
+      <c r="AN48" s="42">
         <f t="shared" si="15"/>
-        <v>8618.7282815400013</v>
-      </c>
-      <c r="AN48" s="42">
-        <f t="shared" si="16"/>
         <v>92857.704381691219</v>
       </c>
       <c r="AO48" s="44">
         <f t="shared" si="21"/>
-        <v>6187997.6345441965</v>
+        <v>6095139.9301625052</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -9970,7 +10094,7 @@
       <c r="L49" s="42">
         <v>3000</v>
       </c>
-      <c r="M49" s="88">
+      <c r="M49" s="86">
         <v>20980999.460000001</v>
       </c>
       <c r="N49" s="51">
@@ -10016,11 +10140,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z49" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="42">
-        <f t="shared" si="18"/>
         <v>10.071054</v>
       </c>
       <c r="AB49" s="42">
@@ -10032,31 +10156,31 @@
         <v>16689.666644118824</v>
       </c>
       <c r="AD49" s="44">
+        <f t="shared" si="18"/>
+        <v>6900426.0046540415</v>
+      </c>
+      <c r="AE49" s="45">
         <f t="shared" si="8"/>
-        <v>6917115.6712981602</v>
-      </c>
-      <c r="AE49" s="45">
+        <v>4873840.3861218467</v>
+      </c>
+      <c r="AF49" s="42">
         <f t="shared" si="9"/>
-        <v>4873840.3861218467</v>
-      </c>
-      <c r="AF49" s="42">
+        <v>1147920.1065013802</v>
+      </c>
+      <c r="AG49" s="42">
         <f t="shared" si="10"/>
-        <v>1147920.1065013802</v>
-      </c>
-      <c r="AG49" s="42">
+        <v>156578.47115317258</v>
+      </c>
+      <c r="AH49" s="42">
         <f t="shared" si="11"/>
-        <v>156578.47115317258</v>
-      </c>
-      <c r="AH49" s="42">
+        <v>16363.916233499996</v>
+      </c>
+      <c r="AI49" s="42">
         <f t="shared" si="12"/>
-        <v>16363.916233499996</v>
-      </c>
-      <c r="AI49" s="42">
+        <v>119822.69288449998</v>
+      </c>
+      <c r="AJ49" s="42">
         <f t="shared" si="13"/>
-        <v>119822.69288449998</v>
-      </c>
-      <c r="AJ49" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK49" s="42">
@@ -10068,16 +10192,16 @@
         <v>9.4122000000000003</v>
       </c>
       <c r="AM49" s="42">
+        <f t="shared" si="14"/>
+        <v>8765.750265480001</v>
+      </c>
+      <c r="AN49" s="42">
         <f t="shared" si="15"/>
-        <v>8765.750265480001</v>
-      </c>
-      <c r="AN49" s="42">
-        <f t="shared" si="16"/>
         <v>96124.029406000816</v>
       </c>
       <c r="AO49" s="44">
         <f t="shared" si="21"/>
-        <v>6474576.7647658801</v>
+        <v>6378452.7353598792</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -10117,7 +10241,7 @@
       <c r="L50" s="42">
         <v>3000</v>
       </c>
-      <c r="M50" s="88">
+      <c r="M50" s="86">
         <v>20184361.5</v>
       </c>
       <c r="N50" s="51">
@@ -10163,11 +10287,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z50" s="42">
+        <f t="shared" si="16"/>
+        <v>44.003080799999999</v>
+      </c>
+      <c r="AA50" s="42">
         <f t="shared" si="17"/>
-        <v>44.003080799999999</v>
-      </c>
-      <c r="AA50" s="42">
-        <f t="shared" si="18"/>
         <v>20.142108</v>
       </c>
       <c r="AB50" s="42">
@@ -10179,31 +10303,31 @@
         <v>16055.968425223256</v>
       </c>
       <c r="AD50" s="44">
+        <f t="shared" si="18"/>
+        <v>6789556.1740181493</v>
+      </c>
+      <c r="AE50" s="45">
         <f t="shared" si="8"/>
-        <v>6805612.1424433729</v>
-      </c>
-      <c r="AE50" s="45">
+        <v>4760793.5924822912</v>
+      </c>
+      <c r="AF50" s="42">
         <f t="shared" si="9"/>
-        <v>4760793.5924822912</v>
-      </c>
-      <c r="AF50" s="42">
+        <v>1160280.1963292425</v>
+      </c>
+      <c r="AG50" s="42">
         <f t="shared" si="10"/>
-        <v>1160280.1963292425</v>
-      </c>
-      <c r="AG50" s="42">
+        <v>136436.09500968194</v>
+      </c>
+      <c r="AH50" s="42">
         <f t="shared" si="11"/>
-        <v>136436.09500968194</v>
-      </c>
-      <c r="AH50" s="42">
+        <v>18199.713412499998</v>
+      </c>
+      <c r="AI50" s="42">
         <f t="shared" si="12"/>
-        <v>18199.713412499998</v>
-      </c>
-      <c r="AI50" s="42">
+        <v>137684.78842500001</v>
+      </c>
+      <c r="AJ50" s="42">
         <f t="shared" si="13"/>
-        <v>137684.78842500001</v>
-      </c>
-      <c r="AJ50" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK50" s="42">
@@ -10215,16 +10339,16 @@
         <v>18.824400000000001</v>
       </c>
       <c r="AM50" s="42">
+        <f t="shared" si="14"/>
+        <v>8912.7722494200007</v>
+      </c>
+      <c r="AN50" s="42">
         <f t="shared" si="15"/>
-        <v>8912.7722494200007</v>
-      </c>
-      <c r="AN50" s="42">
-        <f t="shared" si="16"/>
         <v>92474.248525020012</v>
       </c>
       <c r="AO50" s="44">
         <f t="shared" si="21"/>
-        <v>6369992.2700331565</v>
+        <v>6277518.0215081368</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -10264,7 +10388,7 @@
       <c r="L51" s="42">
         <v>3000</v>
       </c>
-      <c r="M51" s="88">
+      <c r="M51" s="86">
         <v>19496607</v>
       </c>
       <c r="N51" s="51">
@@ -10310,11 +10434,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z51" s="42">
+        <f t="shared" si="16"/>
+        <v>44.003080799999999</v>
+      </c>
+      <c r="AA51" s="42">
         <f t="shared" si="17"/>
-        <v>44.003080799999999</v>
-      </c>
-      <c r="AA51" s="42">
-        <f t="shared" si="18"/>
         <v>60.426323999999994</v>
       </c>
       <c r="AB51" s="42">
@@ -10326,31 +10450,31 @@
         <v>15508.883270396575</v>
       </c>
       <c r="AD51" s="44">
+        <f t="shared" si="18"/>
+        <v>6791210.1261211922</v>
+      </c>
+      <c r="AE51" s="45">
         <f t="shared" si="8"/>
-        <v>6806719.0093915891</v>
-      </c>
-      <c r="AE51" s="45">
+        <v>4706388.4869195893</v>
+      </c>
+      <c r="AF51" s="42">
         <f t="shared" si="9"/>
-        <v>4706388.4869195893</v>
-      </c>
-      <c r="AF51" s="42">
+        <v>1196886.8632620149</v>
+      </c>
+      <c r="AG51" s="42">
         <f t="shared" si="10"/>
-        <v>1196886.8632620149</v>
-      </c>
-      <c r="AG51" s="42">
+        <v>152397.97799131603</v>
+      </c>
+      <c r="AH51" s="42">
         <f t="shared" si="11"/>
-        <v>152397.97799131603</v>
-      </c>
-      <c r="AH51" s="42">
+        <v>25226.385373499994</v>
+      </c>
+      <c r="AI51" s="42">
         <f t="shared" si="12"/>
-        <v>25226.385373499994</v>
-      </c>
-      <c r="AI51" s="42">
+        <v>135585.22728349999</v>
+      </c>
+      <c r="AJ51" s="42">
         <f t="shared" si="13"/>
-        <v>135585.22728349999</v>
-      </c>
-      <c r="AJ51" s="42">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK51" s="42">
@@ -10362,56 +10486,56 @@
         <v>56.473199999999991</v>
       </c>
       <c r="AM51" s="42">
+        <f t="shared" si="14"/>
+        <v>8912.7722494200007</v>
+      </c>
+      <c r="AN51" s="42">
         <f t="shared" si="15"/>
-        <v>8912.7722494200007</v>
-      </c>
-      <c r="AN51" s="42">
-        <f t="shared" si="16"/>
         <v>89323.315038360015</v>
       </c>
       <c r="AO51" s="44">
         <f t="shared" si="21"/>
-        <v>6369969.5405177008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A52" s="89">
+        <v>6280646.2254793411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="15" thickBot="1">
+      <c r="A52" s="87">
         <v>2011</v>
       </c>
-      <c r="B52" s="90">
+      <c r="B52" s="88">
         <v>201403.30850000001</v>
       </c>
-      <c r="C52" s="91">
+      <c r="C52" s="89">
         <v>610</v>
       </c>
-      <c r="D52" s="92">
+      <c r="D52" s="90">
         <v>161.74270000000001</v>
       </c>
-      <c r="E52" s="93">
+      <c r="E52" s="91">
         <v>2.3910000000000001E-2</v>
       </c>
-      <c r="F52" s="94">
+      <c r="F52" s="92">
         <v>0.12141</v>
       </c>
-      <c r="G52" s="95">
+      <c r="G52" s="93">
         <v>12000000</v>
       </c>
-      <c r="H52" s="96">
+      <c r="H52" s="94">
         <v>300000</v>
       </c>
-      <c r="I52" s="96">
+      <c r="I52" s="94">
         <v>14300</v>
       </c>
-      <c r="J52" s="96">
+      <c r="J52" s="94">
         <v>0.1</v>
       </c>
-      <c r="K52" s="96">
+      <c r="K52" s="94">
         <v>0.03</v>
       </c>
-      <c r="L52" s="97">
+      <c r="L52" s="95">
         <v>3000</v>
       </c>
-      <c r="M52" s="98">
+      <c r="M52" s="96">
         <v>17660000</v>
       </c>
       <c r="N52" s="52">
@@ -10432,7 +10556,7 @@
       <c r="S52" s="61">
         <v>15320</v>
       </c>
-      <c r="T52" s="86">
+      <c r="T52" s="84">
         <f t="shared" si="0"/>
         <v>4924912.6884158617</v>
       </c>
@@ -10457,11 +10581,11 @@
         <v>63424.799999999996</v>
       </c>
       <c r="Z52" s="46">
+        <f t="shared" si="16"/>
+        <v>146.67693599999998</v>
+      </c>
+      <c r="AA52" s="46">
         <f t="shared" si="17"/>
-        <v>146.67693599999998</v>
-      </c>
-      <c r="AA52" s="46">
-        <f t="shared" si="18"/>
         <v>60.426323999999994</v>
       </c>
       <c r="AB52" s="46">
@@ -10472,32 +10596,32 @@
         <f t="shared" si="7"/>
         <v>14047.925290549454</v>
       </c>
-      <c r="AD52" s="87">
+      <c r="AD52" s="85">
+        <f t="shared" si="18"/>
+        <v>6752336.8930486357</v>
+      </c>
+      <c r="AE52" s="84">
         <f t="shared" si="8"/>
-        <v>6766384.8183391849</v>
-      </c>
-      <c r="AE52" s="86">
+        <v>4526574.1621469315</v>
+      </c>
+      <c r="AF52" s="46">
         <f t="shared" si="9"/>
-        <v>4526574.1621469315</v>
-      </c>
-      <c r="AF52" s="46">
+        <v>1328875.6025591423</v>
+      </c>
+      <c r="AG52" s="46">
         <f t="shared" si="10"/>
-        <v>1328875.6025591423</v>
-      </c>
-      <c r="AG52" s="46">
+        <v>174060.53346639089</v>
+      </c>
+      <c r="AH52" s="46">
         <f t="shared" si="11"/>
-        <v>174060.53346639089</v>
-      </c>
-      <c r="AH52" s="46">
+        <v>25226.385373499994</v>
+      </c>
+      <c r="AI52" s="46">
         <f t="shared" si="12"/>
-        <v>25226.385373499994</v>
-      </c>
-      <c r="AI52" s="46">
+        <v>128094.33074849998</v>
+      </c>
+      <c r="AJ52" s="46">
         <f t="shared" si="13"/>
-        <v>128094.33074849998</v>
-      </c>
-      <c r="AJ52" s="46">
-        <f t="shared" si="14"/>
         <v>55152</v>
       </c>
       <c r="AK52" s="46">
@@ -10509,16 +10633,16 @@
         <v>56.473199999999991</v>
       </c>
       <c r="AM52" s="46">
+        <f t="shared" si="14"/>
+        <v>8912.7722494200007</v>
+      </c>
+      <c r="AN52" s="46">
         <f t="shared" si="15"/>
-        <v>8912.7722494200007</v>
-      </c>
-      <c r="AN52" s="46">
-        <f t="shared" si="16"/>
         <v>80908.93680000001</v>
       </c>
-      <c r="AO52" s="87">
+      <c r="AO52" s="85">
         <f t="shared" si="21"/>
-        <v>6327994.6605438851</v>
+        <v>6247085.7237438848</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -10971,17 +11095,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="S30:S31"/>
@@ -10996,22 +11125,17 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11027,85 +11151,85 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="K4" s="112"/>
+      <c r="K4" s="110"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="67" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="112"/>
+      <c r="K5" s="110"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="111" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="35"/>
@@ -11114,14 +11238,14 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
       <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11">
@@ -11170,7 +11294,7 @@
         <v>22748258.18</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F27" si="1">E9*B9/100</f>
+        <f t="shared" ref="F9:F28" si="1">E9*B9/100</f>
         <v>8416855.5265999995</v>
       </c>
       <c r="G9" s="17">
@@ -11719,6 +11843,9 @@
       <c r="A28">
         <v>2011</v>
       </c>
+      <c r="B28">
+        <v>39</v>
+      </c>
       <c r="C28" s="2">
         <v>30</v>
       </c>
@@ -11729,10 +11856,13 @@
         <f t="shared" si="0"/>
         <v>35410729.899999999</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>13810184.660999998</v>
+      </c>
       <c r="G28" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6753721408566637</v>
       </c>
       <c r="I28" s="1">
         <v>8289000</v>

--- a/data/Excel Workbooks/Calvin2011/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/SouthAfricaDataWorkbook.xlsx
@@ -978,7 +978,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Calvin 2011</t>
+    <t>Calvin2011</t>
   </si>
 </sst>
 </file>
@@ -4190,11 +4190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112830024"/>
-        <c:axId val="-2105977480"/>
+        <c:axId val="-2102626344"/>
+        <c:axId val="-2102669976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2112830024"/>
+        <c:axId val="-2102626344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,19 +4216,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105977480"/>
+        <c:crossAx val="-2102669976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105977480"/>
+        <c:axId val="-2102669976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,14 +4249,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112830024"/>
+        <c:crossAx val="-2102626344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5138,23 +5136,23 @@
         <v>4490451.7342776405</v>
       </c>
       <c r="G12" s="71">
-        <f>A12-$A$12</f>
+        <f t="shared" ref="G12:G32" si="0">A12-$A$12</f>
         <v>0</v>
       </c>
       <c r="H12" s="21">
-        <f>B12/$B$12</f>
+        <f t="shared" ref="H12:H32" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f>C12/$C$12</f>
+        <f t="shared" ref="I12:I32" si="2">C12/$C$12</f>
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <f>D12/$D$12</f>
+        <f t="shared" ref="J12:J32" si="3">D12/$D$12</f>
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
+        <f t="shared" ref="K12:K32" si="4">E12/$E$12</f>
         <v>1</v>
       </c>
       <c r="L12" s="5">
@@ -5185,27 +5183,27 @@
         <v>4594759.1527198628</v>
       </c>
       <c r="G13" s="71">
-        <f>A13-$A$12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="21">
-        <f>B13/$B$12</f>
+        <f t="shared" si="1"/>
         <v>0.97862669417140025</v>
       </c>
       <c r="I13" s="5">
-        <f>C13/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0012022581544466</v>
       </c>
       <c r="J13" s="5">
-        <f>D13/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.0210844828674435</v>
       </c>
       <c r="K13" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0229231762314899</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" ref="L13:L32" si="1">F13/$F$12</f>
+        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
         <v>1.0232287138610123</v>
       </c>
     </row>
@@ -5232,27 +5230,27 @@
         <v>4592851.1101301583</v>
       </c>
       <c r="G14" s="71">
-        <f>A14-$A$12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="21">
-        <f>B14/$B$12</f>
+        <f t="shared" si="1"/>
         <v>0.99070237553418483</v>
       </c>
       <c r="I14" s="5">
-        <f>C14/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0019236130471145</v>
       </c>
       <c r="J14" s="5">
-        <f>D14/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.0596971479482411</v>
       </c>
       <c r="K14" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0226100561442151</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0228038028047062</v>
       </c>
     </row>
@@ -5279,27 +5277,27 @@
         <v>4984816.060104914</v>
       </c>
       <c r="G15" s="71">
-        <f>A15-$A$12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H15" s="21">
-        <f>B15/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0227386912396637</v>
       </c>
       <c r="I15" s="5">
-        <f>C15/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0084332311123501</v>
       </c>
       <c r="J15" s="5">
-        <f>D15/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.1703636849475125</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1102322464387493</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1100923370478673</v>
       </c>
     </row>
@@ -5326,27 +5324,27 @@
         <v>5059302.2628542436</v>
       </c>
       <c r="G16" s="71">
-        <f>A16-$A$12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="21">
-        <f>B16/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0546035949238399</v>
       </c>
       <c r="I16" s="5">
-        <f>C16/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0226826038472261</v>
       </c>
       <c r="J16" s="5">
-        <f>D16/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.2756746171943205</v>
       </c>
       <c r="K16" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1270287190833779</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1266800229104592</v>
       </c>
     </row>
@@ -5373,27 +5371,27 @@
         <v>5127537.4200238613</v>
       </c>
       <c r="G17" s="71">
-        <f>A17-$A$12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H17" s="21">
-        <f>B17/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1000277805689698</v>
       </c>
       <c r="I17" s="5">
-        <f>C17/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0435775020908837</v>
       </c>
       <c r="J17" s="5">
-        <f>D17/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.2422655511589069</v>
       </c>
       <c r="K17" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1424144339714173</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.141875633777123</v>
       </c>
     </row>
@@ -5420,27 +5418,27 @@
         <v>5532262.1046198383</v>
       </c>
       <c r="G18" s="71">
-        <f>A18-$A$12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H18" s="21">
-        <f>B18/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1291382703935975</v>
       </c>
       <c r="I18" s="5">
-        <f>C18/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0683196264287707</v>
       </c>
       <c r="J18" s="5">
-        <f>D18/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.2908777646168526</v>
       </c>
       <c r="K18" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2324433362558471</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2320056938569433</v>
       </c>
     </row>
@@ -5467,27 +5465,27 @@
         <v>5275485.7694955673</v>
       </c>
       <c r="G19" s="71">
-        <f>A19-$A$12</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H19" s="21">
-        <f>B19/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.134984011395944</v>
       </c>
       <c r="I19" s="5">
-        <f>C19/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0959889880122664</v>
       </c>
       <c r="J19" s="5">
-        <f>D19/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.2885477134940848</v>
       </c>
       <c r="K19" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1758332441525656</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1748229536074084</v>
       </c>
     </row>
@@ -5514,27 +5512,27 @@
         <v>5492674.5263839951</v>
       </c>
       <c r="G20" s="71">
-        <f>A20-$A$12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H20" s="21">
-        <f>B20/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1617479297565358</v>
       </c>
       <c r="I20" s="5">
-        <f>C20/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1139392249790911</v>
       </c>
       <c r="J20" s="5">
-        <f>D20/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.3403410595028735</v>
       </c>
       <c r="K20" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2236660554393917</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2231897482509246</v>
       </c>
     </row>
@@ -5561,27 +5559,27 @@
         <v>5639000.7052226886</v>
       </c>
       <c r="G21" s="71">
-        <f>A21-$A$12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H21" s="21">
-        <f>B21/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2100092798921878</v>
       </c>
       <c r="I21" s="5">
-        <f>C21/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1342939782548089</v>
       </c>
       <c r="J21" s="5">
-        <f>D21/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.3387269687270591</v>
       </c>
       <c r="K21" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2563636877417368</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2557758192071538</v>
       </c>
     </row>
@@ -5608,27 +5606,27 @@
         <v>5711477.0863111811</v>
       </c>
       <c r="G22" s="71">
-        <f>A22-$A$12</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H22" s="21">
-        <f>B22/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2431095322816121</v>
       </c>
       <c r="I22" s="5">
-        <f>C22/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1560252299972122</v>
       </c>
       <c r="J22" s="5">
-        <f>D22/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.350606551053589</v>
       </c>
       <c r="K22" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2722882753220093</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2719159283492358</v>
       </c>
     </row>
@@ -5655,27 +5653,27 @@
         <v>5586882.3722885838</v>
       </c>
       <c r="G23" s="71">
-        <f>A23-$A$12</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H23" s="21">
-        <f>B23/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2887051299480443</v>
       </c>
       <c r="I23" s="5">
-        <f>C23/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1797672149428491</v>
       </c>
       <c r="J23" s="5">
-        <f>D23/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.3693591903438846</v>
       </c>
       <c r="K23" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.245219020840683</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2441693403898308</v>
       </c>
     </row>
@@ -5702,27 +5700,27 @@
         <v>5997287.4598798994</v>
       </c>
       <c r="G24" s="71">
-        <f>A24-$A$12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H24" s="21">
-        <f>B24/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.32671131260233</v>
       </c>
       <c r="I24" s="5">
-        <f>C24/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2125627265124059</v>
       </c>
       <c r="J24" s="5">
-        <f>D24/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.4075982660929032</v>
       </c>
       <c r="K24" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3360197031591734</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.335564396361262</v>
       </c>
     </row>
@@ -5749,27 +5747,27 @@
         <v>6361223.2714074589</v>
       </c>
       <c r="G25" s="71">
-        <f>A25-$A$12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H25" s="21">
-        <f>B25/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.3871370054910954</v>
       </c>
       <c r="I25" s="5">
-        <f>C25/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2579174797881238</v>
       </c>
       <c r="J25" s="5">
-        <f>D25/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.501324121509906</v>
       </c>
       <c r="K25" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4170622080665702</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4166109887896972</v>
       </c>
     </row>
@@ -5796,27 +5794,27 @@
         <v>6282762.5923509225</v>
       </c>
       <c r="G26" s="71">
-        <f>A26-$A$12</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H26" s="21">
-        <f>B26/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.4603358493465655</v>
       </c>
       <c r="I26" s="5">
-        <f>C26/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.314402704209646</v>
       </c>
       <c r="J26" s="5">
-        <f>D26/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.5184945407326125</v>
       </c>
       <c r="K26" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3995427520911294</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3991382079428147</v>
       </c>
     </row>
@@ -5843,27 +5841,27 @@
         <v>6454619.7745619761</v>
       </c>
       <c r="G27" s="71">
-        <f>A27-$A$12</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H27" s="21">
-        <f>B27/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.5421703126200623</v>
       </c>
       <c r="I27" s="5">
-        <f>C27/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.3844891274045164</v>
       </c>
       <c r="J27" s="5">
-        <f>D27/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.5981624695740144</v>
       </c>
       <c r="K27" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4384251849680523</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4374098991624733</v>
       </c>
     </row>
@@ -5890,27 +5888,27 @@
         <v>6591316.0883027315</v>
       </c>
       <c r="G28" s="71">
-        <f>A28-$A$12</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H28" s="21">
-        <f>B28/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.6267710112718181</v>
       </c>
       <c r="I28" s="5">
-        <f>C28/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.4726303317535545</v>
       </c>
       <c r="J28" s="5">
-        <f>D28/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.6965749186042138</v>
       </c>
       <c r="K28" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4686791275267892</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4678514497746957</v>
       </c>
     </row>
@@ -5937,27 +5935,27 @@
         <v>6900426.0046540415</v>
       </c>
       <c r="G29" s="71">
-        <f>A29-$A$12</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H29" s="21">
-        <f>B29/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.6866174497437685</v>
       </c>
       <c r="I29" s="5">
-        <f>C29/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.576303317535545</v>
       </c>
       <c r="J29" s="5">
-        <f>D29/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.7562529512365346</v>
       </c>
       <c r="K29" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5369459119356834</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5366886035050733</v>
       </c>
     </row>
@@ -5984,27 +5982,27 @@
         <v>6789556.1740181493</v>
       </c>
       <c r="G30" s="71">
-        <f>A30-$A$12</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H30" s="21">
-        <f>B30/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.6613193997032798</v>
       </c>
       <c r="I30" s="5">
-        <f>C30/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.6803038751045443</v>
       </c>
       <c r="J30" s="5">
-        <f>D30/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.7140554190780692</v>
       </c>
       <c r="K30" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5126247791683525</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5119984749397057</v>
       </c>
     </row>
@@ -6031,27 +6029,27 @@
         <v>6791210.1261211922</v>
       </c>
       <c r="G31" s="71">
-        <f>A31-$A$12</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H31" s="21">
-        <f>B31/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.7094979992079582</v>
       </c>
       <c r="I31" s="5">
-        <f>C31/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.7923264566490102</v>
       </c>
       <c r="J31" s="5">
-        <f>D31/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.655651326002332</v>
       </c>
       <c r="K31" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5133785482256334</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5123668013800988</v>
       </c>
     </row>
@@ -6078,27 +6076,27 @@
         <v>6752336.8930486357</v>
       </c>
       <c r="G32" s="71">
-        <f>A32-$A$12</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H32" s="21">
-        <f>B32/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.7624879568278136</v>
       </c>
       <c r="I32" s="5">
-        <f>C32/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.9066211318650683</v>
       </c>
       <c r="J32" s="65">
-        <f>D32/$D$12</f>
+        <f t="shared" si="3"/>
         <v>1.6753721408566637</v>
       </c>
       <c r="K32" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5052918416080747</v>
       </c>
       <c r="L32" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.50370993668744</v>
       </c>
     </row>
@@ -11095,22 +11093,17 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="S30:S31"/>
@@ -11125,17 +11118,22 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/Excel Workbooks/Calvin2011/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/SouthAfricaDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="400" windowWidth="21840" windowHeight="13680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="South Africa Workbook" sheetId="1" r:id="rId1"/>
@@ -3791,61 +3791,61 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.021084482867443</c:v>
+                  <c:v>1.043118565785412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.059697147948241</c:v>
+                  <c:v>1.05748887461544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.170363684947513</c:v>
+                  <c:v>1.179969622995175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.27567461719432</c:v>
+                  <c:v>1.273286397827944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.242265551158907</c:v>
+                  <c:v>1.257310947377654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.290877764616853</c:v>
+                  <c:v>1.275228608673437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.288547713494085</c:v>
+                  <c:v>1.290394868666091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.340341059502873</c:v>
+                  <c:v>1.337058157045904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.33872696872706</c:v>
+                  <c:v>1.362478759417661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.350606551053589</c:v>
+                  <c:v>1.431690229944789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.369359190343885</c:v>
+                  <c:v>1.429058514351776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.407598266092903</c:v>
+                  <c:v>1.411057287076307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.501324121509906</c:v>
+                  <c:v>1.430470164808008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.518494540732612</c:v>
+                  <c:v>1.507800149471224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.598162469574014</c:v>
+                  <c:v>1.579135379173566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.696574918604214</c:v>
+                  <c:v>1.583431113974011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.756252951236534</c:v>
+                  <c:v>1.632750826650454</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.71405541907807</c:v>
+                  <c:v>1.580619955454473</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.655651326002332</c:v>
+                  <c:v>1.537536704001911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,11 +4190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2102626344"/>
-        <c:axId val="-2102669976"/>
+        <c:axId val="-2111132488"/>
+        <c:axId val="2085688728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2102626344"/>
+        <c:axId val="-2111132488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,12 +4222,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102669976"/>
+        <c:crossAx val="2085688728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2102669976"/>
+        <c:axId val="2085688728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4255,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102626344"/>
+        <c:crossAx val="-2111132488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="D12" s="73">
         <f>'Employment Data'!F8</f>
-        <v>8243054.9752000002</v>
+        <v>9004353.5601361934</v>
       </c>
       <c r="E12" s="16">
         <f>'Exergy calcs'!AO32</f>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D13" s="73">
         <f>'Employment Data'!F9</f>
-        <v>8416855.5265999995</v>
+        <v>9392608.3714740369</v>
       </c>
       <c r="E13" s="16">
         <f>'Exergy calcs'!AO33</f>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="3"/>
-        <v>1.0210844828674435</v>
+        <v>1.0431185657854123</v>
       </c>
       <c r="K13" s="65">
         <f t="shared" si="4"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="D14" s="73">
         <f>'Employment Data'!F10</f>
-        <v>8735141.8476</v>
+        <v>9522003.7129479535</v>
       </c>
       <c r="E14" s="16">
         <f>'Exergy calcs'!AO34</f>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="3"/>
-        <v>1.0596971479482411</v>
+        <v>1.0574888746154401</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="4"/>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="D15" s="73">
         <f>'Employment Data'!F11</f>
-        <v>9647372.1959999986</v>
+        <v>10624863.675669165</v>
       </c>
       <c r="E15" s="16">
         <f>'Exergy calcs'!AO35</f>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" si="3"/>
-        <v>1.1703636849475125</v>
+        <v>1.1799696229951748</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="4"/>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D16" s="73">
         <f>'Employment Data'!F12</f>
-        <v>10515456</v>
+        <v>11465120.909355037</v>
       </c>
       <c r="E16" s="16">
         <f>'Exergy calcs'!AO36</f>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="J16" s="5">
         <f t="shared" si="3"/>
-        <v>1.2756746171943205</v>
+        <v>1.2732863978279441</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="4"/>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D17" s="73">
         <f>'Employment Data'!F13</f>
-        <v>10240063.231999999</v>
+        <v>11321272.305218186</v>
       </c>
       <c r="E17" s="16">
         <f>'Exergy calcs'!AO37</f>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="J17" s="5">
         <f t="shared" si="3"/>
-        <v>1.2422655511589069</v>
+        <v>1.2573109473776538</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="4"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D18" s="73">
         <f>'Employment Data'!F14</f>
-        <v>10640776.380000001</v>
+        <v>11482609.262496185</v>
       </c>
       <c r="E18" s="16">
         <f>'Exergy calcs'!AO38</f>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" si="3"/>
-        <v>1.2908777646168526</v>
+        <v>1.2752286086734368</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="4"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="D19" s="73">
         <f>'Employment Data'!F15</f>
-        <v>10621569.6405</v>
+        <v>11619171.629654989</v>
       </c>
       <c r="E19" s="16">
         <f>'Exergy calcs'!AO39</f>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="J19" s="5">
         <f t="shared" si="3"/>
-        <v>1.2885477134940848</v>
+        <v>1.2903948686660907</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="4"/>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="D20" s="73">
         <f>'Employment Data'!F16</f>
-        <v>11048505.039000001</v>
+        <v>12039344.37650542</v>
       </c>
       <c r="E20" s="16">
         <f>'Exergy calcs'!AO40</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="J20" s="5">
         <f t="shared" si="3"/>
-        <v>1.3403410595028735</v>
+        <v>1.3370581570459037</v>
       </c>
       <c r="K20" s="65">
         <f t="shared" si="4"/>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="D21" s="73">
         <f>'Employment Data'!F17</f>
-        <v>11035200</v>
+        <v>12268240.467972364</v>
       </c>
       <c r="E21" s="16">
         <f>'Exergy calcs'!AO41</f>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="J21" s="5">
         <f t="shared" si="3"/>
-        <v>1.3387269687270591</v>
+        <v>1.3624787594176615</v>
       </c>
       <c r="K21" s="65">
         <f t="shared" si="4"/>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="D22" s="73">
         <f>'Employment Data'!F18</f>
-        <v>11133124.0502</v>
+        <v>12891445.019015567</v>
       </c>
       <c r="E22" s="16">
         <f>'Exergy calcs'!AO42</f>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="J22" s="5">
         <f t="shared" si="3"/>
-        <v>1.350606551053589</v>
+        <v>1.4316902299447891</v>
       </c>
       <c r="K22" s="65">
         <f t="shared" si="4"/>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="D23" s="73">
         <f>'Employment Data'!F19</f>
-        <v>11287703.086800002</v>
+        <v>12867748.121346356</v>
       </c>
       <c r="E23" s="16">
         <f>'Exergy calcs'!AO43</f>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="J23" s="5">
         <f t="shared" si="3"/>
-        <v>1.3693591903438846</v>
+        <v>1.4290585143517762</v>
       </c>
       <c r="K23" s="65">
         <f t="shared" si="4"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D24" s="73">
         <f>'Employment Data'!F20</f>
-        <v>11602909.8904</v>
+        <v>12705658.706441663</v>
       </c>
       <c r="E24" s="16">
         <f>'Exergy calcs'!AO44</f>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="J24" s="5">
         <f t="shared" si="3"/>
-        <v>1.4075982660929032</v>
+        <v>1.411057287076307</v>
       </c>
       <c r="K24" s="65">
         <f t="shared" si="4"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="D25" s="73">
         <f>'Employment Data'!F21</f>
-        <v>12375497.269200001</v>
+        <v>12880459.121157594</v>
       </c>
       <c r="E25" s="16">
         <f>'Exergy calcs'!AO45</f>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="J25" s="5">
         <f t="shared" si="3"/>
-        <v>1.501324121509906</v>
+        <v>1.430470164808008</v>
       </c>
       <c r="K25" s="65">
         <f t="shared" si="4"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D26" s="73">
         <f>'Employment Data'!F22</f>
-        <v>12517033.978800001</v>
+        <v>13576765.643865103</v>
       </c>
       <c r="E26" s="16">
         <f>'Exergy calcs'!AO46</f>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="J26" s="5">
         <f t="shared" si="3"/>
-        <v>1.5184945407326125</v>
+        <v>1.5078001494712243</v>
       </c>
       <c r="K26" s="65">
         <f t="shared" si="4"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D27" s="73">
         <f>'Employment Data'!F23</f>
-        <v>13173741.095999999</v>
+        <v>14219093.27339852</v>
       </c>
       <c r="E27" s="16">
         <f>'Exergy calcs'!AO47</f>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="J27" s="5">
         <f t="shared" si="3"/>
-        <v>1.5981624695740144</v>
+        <v>1.5791353791735665</v>
       </c>
       <c r="K27" s="65">
         <f t="shared" si="4"/>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="D28" s="73">
         <f>'Employment Data'!F24</f>
-        <v>13984960.3236</v>
+        <v>14257773.588342302</v>
       </c>
       <c r="E28" s="16">
         <f>'Exergy calcs'!AO48</f>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="J28" s="5">
         <f t="shared" si="3"/>
-        <v>1.6965749186042138</v>
+        <v>1.5834311139740107</v>
       </c>
       <c r="K28" s="65">
         <f t="shared" si="4"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="D29" s="73">
         <f>'Employment Data'!F25</f>
-        <v>14476889.6274</v>
+        <v>14701865.718765333</v>
       </c>
       <c r="E29" s="16">
         <f>'Exergy calcs'!AO49</f>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="J29" s="5">
         <f t="shared" si="3"/>
-        <v>1.7562529512365346</v>
+        <v>1.6327508266504545</v>
       </c>
       <c r="K29" s="65">
         <f t="shared" si="4"/>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="D30" s="73">
         <f>'Employment Data'!F26</f>
-        <v>14129053.050000001</v>
+        <v>14232460.923118792</v>
       </c>
       <c r="E30" s="16">
         <f>'Exergy calcs'!AO50</f>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="J30" s="5">
         <f t="shared" si="3"/>
-        <v>1.7140554190780692</v>
+        <v>1.5806199554544726</v>
       </c>
       <c r="K30" s="65">
         <f t="shared" si="4"/>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="D31" s="73">
         <f>'Employment Data'!F27</f>
-        <v>13647624.9</v>
+        <v>13844524.094519677</v>
       </c>
       <c r="E31" s="16">
         <f>'Exergy calcs'!AO51</f>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J31" s="5">
         <f t="shared" si="3"/>
-        <v>1.655651326002332</v>
+        <v>1.537536704001911</v>
       </c>
       <c r="K31" s="65">
         <f t="shared" si="4"/>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="D32" s="73">
         <f>'Employment Data'!F28</f>
-        <v>13810184.660999998</v>
+        <v>14015665.159035422</v>
       </c>
       <c r="E32" s="16">
         <f>'Exergy calcs'!AO52</f>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="J32" s="65">
         <f t="shared" si="3"/>
-        <v>1.6753721408566637</v>
+        <v>1.5565431838533261</v>
       </c>
       <c r="K32" s="65">
         <f t="shared" si="4"/>
@@ -6157,7 +6157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J22"/>
     </sheetView>
   </sheetViews>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="E3" s="72">
         <f>'South Africa Workbook'!J13</f>
-        <v>1.0210844828674435</v>
+        <v>1.0431185657854123</v>
       </c>
       <c r="F3" s="72">
         <f>'South Africa Workbook'!K13</f>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="E4" s="72">
         <f>'South Africa Workbook'!J14</f>
-        <v>1.0596971479482411</v>
+        <v>1.0574888746154401</v>
       </c>
       <c r="F4" s="72">
         <f>'South Africa Workbook'!K14</f>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="E5" s="72">
         <f>'South Africa Workbook'!J15</f>
-        <v>1.1703636849475125</v>
+        <v>1.1799696229951748</v>
       </c>
       <c r="F5" s="72">
         <f>'South Africa Workbook'!K15</f>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="E6" s="72">
         <f>'South Africa Workbook'!J16</f>
-        <v>1.2756746171943205</v>
+        <v>1.2732863978279441</v>
       </c>
       <c r="F6" s="72">
         <f>'South Africa Workbook'!K16</f>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="E7" s="72">
         <f>'South Africa Workbook'!J17</f>
-        <v>1.2422655511589069</v>
+        <v>1.2573109473776538</v>
       </c>
       <c r="F7" s="72">
         <f>'South Africa Workbook'!K17</f>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="E8" s="72">
         <f>'South Africa Workbook'!J18</f>
-        <v>1.2908777646168526</v>
+        <v>1.2752286086734368</v>
       </c>
       <c r="F8" s="72">
         <f>'South Africa Workbook'!K18</f>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="E9" s="72">
         <f>'South Africa Workbook'!J19</f>
-        <v>1.2885477134940848</v>
+        <v>1.2903948686660907</v>
       </c>
       <c r="F9" s="72">
         <f>'South Africa Workbook'!K19</f>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="E10" s="72">
         <f>'South Africa Workbook'!J20</f>
-        <v>1.3403410595028735</v>
+        <v>1.3370581570459037</v>
       </c>
       <c r="F10" s="72">
         <f>'South Africa Workbook'!K20</f>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="E11" s="72">
         <f>'South Africa Workbook'!J21</f>
-        <v>1.3387269687270591</v>
+        <v>1.3624787594176615</v>
       </c>
       <c r="F11" s="72">
         <f>'South Africa Workbook'!K21</f>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="E12" s="72">
         <f>'South Africa Workbook'!J22</f>
-        <v>1.350606551053589</v>
+        <v>1.4316902299447891</v>
       </c>
       <c r="F12" s="72">
         <f>'South Africa Workbook'!K22</f>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="E13" s="72">
         <f>'South Africa Workbook'!J23</f>
-        <v>1.3693591903438846</v>
+        <v>1.4290585143517762</v>
       </c>
       <c r="F13" s="72">
         <f>'South Africa Workbook'!K23</f>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="E14" s="72">
         <f>'South Africa Workbook'!J24</f>
-        <v>1.4075982660929032</v>
+        <v>1.411057287076307</v>
       </c>
       <c r="F14" s="72">
         <f>'South Africa Workbook'!K24</f>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E15" s="72">
         <f>'South Africa Workbook'!J25</f>
-        <v>1.501324121509906</v>
+        <v>1.430470164808008</v>
       </c>
       <c r="F15" s="72">
         <f>'South Africa Workbook'!K25</f>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="E16" s="72">
         <f>'South Africa Workbook'!J26</f>
-        <v>1.5184945407326125</v>
+        <v>1.5078001494712243</v>
       </c>
       <c r="F16" s="72">
         <f>'South Africa Workbook'!K26</f>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="E17" s="72">
         <f>'South Africa Workbook'!J27</f>
-        <v>1.5981624695740144</v>
+        <v>1.5791353791735665</v>
       </c>
       <c r="F17" s="72">
         <f>'South Africa Workbook'!K27</f>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="E18" s="72">
         <f>'South Africa Workbook'!J28</f>
-        <v>1.6965749186042138</v>
+        <v>1.5834311139740107</v>
       </c>
       <c r="F18" s="72">
         <f>'South Africa Workbook'!K28</f>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="E19" s="72">
         <f>'South Africa Workbook'!J29</f>
-        <v>1.7562529512365346</v>
+        <v>1.6327508266504545</v>
       </c>
       <c r="F19" s="72">
         <f>'South Africa Workbook'!K29</f>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="E20" s="72">
         <f>'South Africa Workbook'!J30</f>
-        <v>1.7140554190780692</v>
+        <v>1.5806199554544726</v>
       </c>
       <c r="F20" s="72">
         <f>'South Africa Workbook'!K30</f>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="E21" s="72">
         <f>'South Africa Workbook'!J31</f>
-        <v>1.655651326002332</v>
+        <v>1.537536704001911</v>
       </c>
       <c r="F21" s="72">
         <f>'South Africa Workbook'!K31</f>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="E22" s="72">
         <f>'South Africa Workbook'!J32</f>
-        <v>1.6753721408566637</v>
+        <v>1.5565431838533261</v>
       </c>
       <c r="F22" s="72">
         <f>'South Africa Workbook'!K32</f>
@@ -11093,17 +11093,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="S30:S31"/>
@@ -11118,22 +11123,17 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11148,8 +11148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11251,21 +11251,21 @@
         <v>1991</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>40.700000762939503</v>
       </c>
       <c r="C8" s="2">
-        <v>38</v>
+        <v>38.430824279785199</v>
       </c>
       <c r="D8" s="1">
         <v>35933108</v>
       </c>
       <c r="E8" s="1">
         <f>D8*(100-C8)/100</f>
-        <v>22278526.960000001</v>
+        <v>22123718.406254563</v>
       </c>
       <c r="F8" s="6">
         <f>E8*B8/100</f>
-        <v>8243054.9752000002</v>
+        <v>9004353.5601361934</v>
       </c>
       <c r="G8" s="17">
         <f>F8/$F$8</f>
@@ -11279,25 +11279,25 @@
         <v>1992</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>41.200000762939503</v>
       </c>
       <c r="C9" s="2">
-        <v>38</v>
+        <v>37.8655395507813</v>
       </c>
       <c r="D9" s="1">
         <v>36690739</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ref="E9:E28" si="0">D9*(100-C9)/100</f>
-        <v>22748258.18</v>
+        <v>22797592.712481059</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ref="F9:F28" si="1">E9*B9/100</f>
-        <v>8416855.5265999995</v>
+        <v>9392608.3714740369</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" ref="G9:G28" si="2">F9/$F$8</f>
-        <v>1.0210844828674435</v>
+        <v>1.0431185657854123</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -11307,25 +11307,25 @@
         <v>1993</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="C10" s="2">
-        <v>37</v>
+        <v>37.259838104247997</v>
       </c>
       <c r="D10" s="1">
         <v>37473796</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>23608491.48</v>
+        <v>23511120.278883837</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>8735141.8476</v>
+        <v>9522003.7129479535</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>1.0596971479482411</v>
+        <v>1.0574888746154401</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -11335,25 +11335,25 @@
         <v>1994</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>43.799999237060497</v>
       </c>
       <c r="C11" s="2">
-        <v>37</v>
+        <v>36.636264801025398</v>
       </c>
       <c r="D11" s="1">
         <v>38283223</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>24118430.489999998</v>
+        <v>24257680.04735294</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>9647372.1959999986</v>
+        <v>10624863.675669165</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="2"/>
-        <v>1.1703636849475125</v>
+        <v>1.1799696229951748</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -11364,25 +11364,25 @@
         <v>1995</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>45.799999237060497</v>
       </c>
       <c r="C12" s="2">
-        <v>36</v>
+        <v>36.009674072265597</v>
       </c>
       <c r="D12" s="1">
         <v>39120000</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>25036800</v>
+        <v>25033015.502929699</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
-        <v>10515456</v>
+        <v>11465120.909355037</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="2"/>
-        <v>1.2756746171943205</v>
+        <v>1.2732863978279441</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -11392,25 +11392,25 @@
         <v>1996</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>43.799999237060497</v>
       </c>
       <c r="C13" s="2">
-        <v>36</v>
+        <v>35.381263732910199</v>
       </c>
       <c r="D13" s="1">
         <v>40000247</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>25600158.079999998</v>
+        <v>25847654.115114499</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>10240063.231999999</v>
+        <v>11321272.305218186</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="2"/>
-        <v>1.2422655511589069</v>
+        <v>1.2573109473776538</v>
       </c>
       <c r="H13" s="1">
         <v>9300000</v>
@@ -11422,25 +11422,25 @@
         <v>1997</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
-        <v>35</v>
+        <v>34.751255035400398</v>
       </c>
       <c r="D14" s="1">
         <v>40926063</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>26601940.949999999</v>
+        <v>26703742.470921364</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>10640776.380000001</v>
+        <v>11482609.262496185</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" si="2"/>
-        <v>1.2908777646168526</v>
+        <v>1.2752286086734368</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="17"/>
@@ -11450,25 +11450,25 @@
         <v>1998</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>42.099998474121101</v>
       </c>
       <c r="C15" s="2">
-        <v>35</v>
+        <v>34.130805969238303</v>
       </c>
       <c r="D15" s="1">
         <v>41899683</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>27234793.949999999</v>
+        <v>27598983.493544072</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="1"/>
-        <v>10621569.6405</v>
+        <v>11619171.629654989</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="2"/>
-        <v>1.2885477134940848</v>
+        <v>1.2903948686660907</v>
       </c>
       <c r="H15" s="1">
         <v>9800000</v>
@@ -11480,25 +11480,25 @@
         <v>1999</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>42.200000762939503</v>
       </c>
       <c r="C16" s="2">
-        <v>34</v>
+        <v>33.534633636474602</v>
       </c>
       <c r="D16" s="1">
         <v>42923485</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>28329500.100000001</v>
+        <v>28529251.561242867</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>11048505.039000001</v>
+        <v>12039344.37650542</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" si="2"/>
-        <v>1.3403410595028735</v>
+        <v>1.3370581570459037</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="17"/>
@@ -11508,25 +11508,25 @@
         <v>2000</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>41.599998474121101</v>
       </c>
       <c r="C17" s="2">
-        <v>34</v>
+        <v>32.975082397460902</v>
       </c>
       <c r="D17" s="1">
         <v>44000000</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>29040000</v>
+        <v>29490963.745117202</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
-        <v>11035200</v>
+        <v>12268240.467972364</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>1.3387269687270591</v>
+        <v>1.3624787594176615</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="17"/>
@@ -11536,25 +11536,25 @@
         <v>2001</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>42.5</v>
       </c>
       <c r="C18" s="2">
-        <v>33</v>
+        <v>32.458274841308601</v>
       </c>
       <c r="D18" s="1">
         <v>44909738</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>30089524.460000001</v>
+        <v>30332811.809448395</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="1"/>
-        <v>11133124.0502</v>
+        <v>12891445.019015567</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="2"/>
-        <v>1.350606551053589</v>
+        <v>1.4316902299447891</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="17"/>
@@ -11564,25 +11564,25 @@
         <v>2002</v>
       </c>
       <c r="B19">
-        <v>37</v>
+        <v>41.299999237060497</v>
       </c>
       <c r="C19" s="2">
-        <v>33</v>
+        <v>31.985078811645501</v>
       </c>
       <c r="D19" s="1">
-        <v>45533292</v>
+        <v>45808736</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>30507305.640000001</v>
+        <v>31156775.687781371</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="1"/>
-        <v>11287703.086800002</v>
+        <v>12867748.121346356</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="2"/>
-        <v>1.3693591903438846</v>
+        <v>1.4290585143517762</v>
       </c>
       <c r="H19" s="1">
         <v>11200000</v>
@@ -11594,25 +11594,25 @@
         <v>2003</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>32</v>
+        <v>31.556421279907202</v>
       </c>
       <c r="D20" s="1">
-        <v>46116494</v>
+        <v>46409243</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>31359215.920000002</v>
+        <v>31764146.766104158</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="1"/>
-        <v>11602909.8904</v>
+        <v>12705658.706441663</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="2"/>
-        <v>1.4075982660929032</v>
+        <v>1.411057287076307</v>
       </c>
       <c r="H20" s="1">
         <v>11400000</v>
@@ -11626,25 +11626,25 @@
         <v>2004</v>
       </c>
       <c r="B21">
-        <v>39</v>
+        <v>39.799999237060497</v>
       </c>
       <c r="C21" s="2">
-        <v>32</v>
+        <v>31.171117782592798</v>
       </c>
       <c r="D21" s="1">
-        <v>46664771</v>
+        <v>47019452</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>31732044.280000001</v>
+        <v>32362963.236350313</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="1"/>
-        <v>12375497.269200001</v>
+        <v>12880459.121157594</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" si="2"/>
-        <v>1.501324121509906</v>
+        <v>1.430470164808008</v>
       </c>
       <c r="H21" s="1">
         <v>11600000</v>
@@ -11658,25 +11658,25 @@
         <v>2005</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>41.200000762939503</v>
       </c>
       <c r="C22" s="2">
-        <v>32</v>
+        <v>30.827831268310501</v>
       </c>
       <c r="D22" s="1">
-        <v>47198469</v>
+        <v>47639556</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>32094958.920000002</v>
+        <v>32953314.059347704</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="1"/>
-        <v>12517033.978800001</v>
+        <v>13576765.643865103</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" si="2"/>
-        <v>1.5184945407326125</v>
+        <v>1.5078001494712243</v>
       </c>
       <c r="H22" s="1">
         <v>12300000</v>
@@ -11690,25 +11690,25 @@
         <v>2006</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>42.400001525878899</v>
       </c>
       <c r="C23" s="2">
-        <v>31</v>
+        <v>30.524616241455099</v>
       </c>
       <c r="D23" s="1">
-        <v>47730946</v>
+        <v>48269753</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>32934352.739999998</v>
+        <v>33535596.136051737</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>13173741.095999999</v>
+        <v>14219093.27339852</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="2"/>
-        <v>1.5981624695740144</v>
+        <v>1.5791353791735665</v>
       </c>
       <c r="H23" s="1">
         <v>12800000</v>
@@ -11720,25 +11720,25 @@
         <v>2007</v>
       </c>
       <c r="B24">
-        <v>42</v>
+        <v>41.799999237060497</v>
       </c>
       <c r="C24" s="2">
-        <v>31</v>
+        <v>30.261022567748999</v>
       </c>
       <c r="D24" s="1">
-        <v>48257282</v>
+        <v>48910248</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>33297524.579999998</v>
+        <v>34109506.814778</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>13984960.3236</v>
+        <v>14257773.588342302</v>
       </c>
       <c r="G24" s="17">
         <f t="shared" si="2"/>
-        <v>1.6965749186042138</v>
+        <v>1.5834311139740107</v>
       </c>
       <c r="H24" s="1">
         <v>13200000</v>
@@ -11750,25 +11750,25 @@
         <v>2008</v>
       </c>
       <c r="B25">
-        <v>43</v>
+        <v>42.400001525878899</v>
       </c>
       <c r="C25" s="2">
-        <v>31</v>
+        <v>30.0376682281494</v>
       </c>
       <c r="D25" s="1">
-        <v>48793022</v>
+        <v>49561256</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>33667185.18</v>
+        <v>34674210.353016213</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>14476889.6274</v>
+        <v>14701865.718765333</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" si="2"/>
-        <v>1.7562529512365346</v>
+        <v>1.6327508266504545</v>
       </c>
       <c r="H25" s="1">
         <v>13700000</v>
@@ -11782,25 +11782,25 @@
         <v>2009</v>
       </c>
       <c r="B26">
-        <v>41</v>
+        <v>40.400001525878899</v>
       </c>
       <c r="C26" s="2">
-        <v>30</v>
+        <v>29.855115890502901</v>
       </c>
       <c r="D26" s="1">
-        <v>49230150</v>
+        <v>50222996</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>34461105</v>
+        <v>35228862.340517364</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="1"/>
-        <v>14129053.050000001</v>
+        <v>14232460.923118792</v>
       </c>
       <c r="G26" s="17">
         <f t="shared" si="2"/>
-        <v>1.7140554190780692</v>
+        <v>1.5806199554544726</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="1">
@@ -11812,25 +11812,25 @@
         <v>2010</v>
       </c>
       <c r="B27">
-        <v>39</v>
+        <v>38.700000762939503</v>
       </c>
       <c r="C27" s="2">
-        <v>30</v>
+        <v>29.711223602294901</v>
       </c>
       <c r="D27" s="1">
-        <v>49991300</v>
+        <v>50895698</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>34993910</v>
+        <v>35773963.363271266</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="1"/>
-        <v>13647624.9</v>
+        <v>13844524.094519677</v>
       </c>
       <c r="G27" s="17">
         <f t="shared" si="2"/>
-        <v>1.655651326002332</v>
+        <v>1.537536704001911</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="1">
@@ -11842,25 +11842,25 @@
         <v>2011</v>
       </c>
       <c r="B28">
-        <v>39</v>
+        <v>38.599998474121101</v>
       </c>
       <c r="C28" s="2">
-        <v>30</v>
+        <v>29.6039218902588</v>
       </c>
       <c r="D28" s="16">
-        <v>50586757</v>
+        <v>51579599</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>35410729.899999999</v>
+        <v>36310014.800731286</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="1"/>
-        <v>13810184.660999998</v>
+        <v>14015665.159035422</v>
       </c>
       <c r="G28" s="17">
         <f t="shared" si="2"/>
-        <v>1.6753721408566637</v>
+        <v>1.5565431838533261</v>
       </c>
       <c r="I28" s="1">
         <v>8289000</v>
